--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -2093,7 +2093,7 @@
         <v>کوئی بھی اپنی مرضی سے یہ نتیجہ نہیں نکالے گا کہ یہ ایک شاہکار ہے۔</v>
       </c>
       <c r="D121" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="122">
@@ -2107,7 +2107,7 @@
         <v>کاش قانون سے سخت نتائج ہوتے۔</v>
       </c>
       <c r="D122" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="123">
@@ -2121,7 +2121,7 @@
         <v>Y-intercepts مجموعی طور پر بغیر تبدیلی کے رہیں گے چاہے عمودی محور میں ڈیٹا میں تبدیلی ہو۔</v>
       </c>
       <c r="D123" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="124">
@@ -2135,7 +2135,7 @@
         <v>محافظین کہتے ہیں کہ جھوٹی گواہی جھوٹی گواہی ہے اور کوئی بھی اس سے بچ نہیں سکتا۔</v>
       </c>
       <c r="D124" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="125">
@@ -2149,7 +2149,7 @@
         <v>اس نے دو مہینے کی تلاش کے بعد ایک ایسا شخص پایا جو ان گھنٹوں میں کام کرنے کے لیے تیار تھا۔</v>
       </c>
       <c r="D125" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="126">
@@ -2163,7 +2163,7 @@
         <v>تبدیلی اپنی حفاظت فراہم کرے گی۔</v>
       </c>
       <c r="D126" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="127">
@@ -2177,7 +2177,7 @@
         <v>فرانسیسی میٹروپولٹن علاقے میں سائیکلنگ محفوظ اور آرام دہ ہے۔</v>
       </c>
       <c r="D127" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="128">
@@ -2191,7 +2191,7 @@
         <v>یہ واضح نہیں ہے کہ زیادتی زیادہ بار ہو رہی ہے، یا صرف زیادہ بار رپورٹ کی جا رہی ہے۔</v>
       </c>
       <c r="D128" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="129">
@@ -2205,7 +2205,7 @@
         <v>انٹرن کو تنخواہ نہیں ملتی۔</v>
       </c>
       <c r="D129" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="130">
@@ -2219,7 +2219,7 @@
         <v>اگر وہ آپ کو بتاتا ہے کہ آپ ہیپی ٹیکساس کو پسند کریں گے تو وہ اچھا دوست نہیں ہے، مضمون میں لکھا گیا۔</v>
       </c>
       <c r="D130" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="131">
@@ -2233,7 +2233,7 @@
         <v>میں کبھی کبھار جاؤں گا جب مجھے دل کرے گا۔</v>
       </c>
       <c r="D131" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="132">
@@ -2247,7 +2247,7 @@
         <v>اگر آپ پیسے بھی لیں، تو قواعد کی پابندی کرنا ممکن ہو سکتا ہے۔</v>
       </c>
       <c r="D132" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="133">
@@ -2261,7 +2261,7 @@
         <v>اگر یہ ترکی نہیں ہوتا</v>
       </c>
       <c r="D133" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="134">
@@ -2275,7 +2275,7 @@
         <v>پہلے تو یہ کہنا مشکل ہے کہ فریڈ اچھا ہے یا نہیں۔</v>
       </c>
       <c r="D134" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="135">
@@ -2289,7 +2289,7 @@
         <v>کلرک نے کہا کہ اگر میں نقش و نگار کرنے کا انتخاب کروں تو وہ مجھے 20% رعایت دے گا۔</v>
       </c>
       <c r="D135" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="136">
@@ -2303,7 +2303,7 @@
         <v>اگر بینڈ "او لے" چیختا ہے، تو اس کا مطلب ہے کہ میٹادور اچھی کارکردگی نہیں دکھا رہا۔</v>
       </c>
       <c r="D136" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="137">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -1449,7 +1449,7 @@
         <v>اینڈریو باؤمگارٹنر ایک بورنگ استاد ہے۔</v>
       </c>
       <c r="D75" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="76">
@@ -1463,7 +1463,7 @@
         <v>بڑے لڑکوں نے سوچا کہ یہ خطرے سے پاک ہے۔</v>
       </c>
       <c r="D76" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="77">
@@ -1477,7 +1477,7 @@
         <v>سروے آن لائن لینے کے لیے دستیاب ہے۔</v>
       </c>
       <c r="D77" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="78">
@@ -1491,7 +1491,7 @@
         <v>پرو چائس میڈیا ایسے اعداد و شمار قبول کرنے کے لیے تیار ہے جو ان کے دعوے کی حمایت کرتے ہیں، چاہے وہ غلط ہی کیوں نہ ہوں۔</v>
       </c>
       <c r="D78" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="79">
@@ -1519,7 +1519,7 @@
         <v>کینیوک مین کے پاس اپنے ریزرویشن کے بارے میں فیصلہ کرنے کا اختیار ہے اگر ثبوت موجود ہو۔</v>
       </c>
       <c r="D80" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="81">
@@ -1533,7 +1533,7 @@
         <v>اکثر آپ کو آپشنز ایکسچینج کے فرش پر تالیوں کی آواز سنائی دیتی ہے۔</v>
       </c>
       <c r="D81" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="82">
@@ -1547,7 +1547,7 @@
         <v>جیسا کہ یہ معلوم ہوا، لوینسکی اور ٹرپ اچھے دوست بن جائیں گے اگر کلنٹن اپنی افسوس اور پچھتاوے کا اظہار کریں۔</v>
       </c>
       <c r="D82" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="83">
@@ -1561,7 +1561,7 @@
         <v>ایک ثقافتی خانہ جنگی جاری ہے۔</v>
       </c>
       <c r="D83" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="84">
@@ -1575,7 +1575,7 @@
         <v>پس، تم ان کی زنجیریں توڑ دو، جو وہ کہتی ہے اور جسے وہ اس کی طرف بلاتی ہے، حقیقت میں، باطل کر دو۔</v>
       </c>
       <c r="D84" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="85">
@@ -1589,7 +1589,7 @@
         <v>اگر یہ مفت ہوتا تو مشتہرین اس رسالے کو چھوڑ دیتے۔</v>
       </c>
       <c r="D85" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="86">
@@ -1603,7 +1603,7 @@
         <v>اگر وہ مارجن پر خریدتا ہے تو اسے بہت زیادہ نقصان اٹھانا پڑ سکتا ہے۔</v>
       </c>
       <c r="D86" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="87">
@@ -1617,7 +1617,7 @@
         <v>شین ایک راستے پر ہے جو موت کی طرف جاتا ہے۔</v>
       </c>
       <c r="D87" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="88">
@@ -1631,7 +1631,7 @@
         <v>جانوروں کو کامیابی سے پالتو بنانے کے بعد، انہیں پالتو جانور کے طور پر استعمال کرنا ایک ذاتی انتخاب ہے۔</v>
       </c>
       <c r="D88" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="89">
@@ -1645,7 +1645,7 @@
         <v>آپ یہاں کلک کر کے جون رابن بیٹز کے اس تنازعے پر خیالات اور سنسرشپ پر ان کی رائے پڑھ سکتے ہیں۔</v>
       </c>
       <c r="D89" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="90">
@@ -1659,7 +1659,7 @@
         <v>اگر ایک اور کھلاڑی ہوتا تو کیا ہوتا؟</v>
       </c>
       <c r="D90" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="91">
@@ -1673,7 +1673,7 @@
         <v>لینڈسبرگ امریکہ کی تنقید کر رہا ہے۔</v>
       </c>
       <c r="D91" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="92">
@@ -1687,7 +1687,7 @@
         <v>بہت کم، اگر کوئی، جسمانی اشاعتیں مہنگی ہیں - زیادہ تر، وہ بہت سستی ہیں۔</v>
       </c>
       <c r="D92" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="93">
@@ -1701,7 +1701,7 @@
         <v>اسقاط حمل کا طریقہ کار اہم ہے</v>
       </c>
       <c r="D93" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="94">
@@ -1715,7 +1715,7 @@
         <v>ریٹائر ہونے سے پہلے آئی آر اے اکاؤنٹ کا استعمال کرنے سے ٹیکس کے فوائد حاصل ہو سکتے ہیں۔</v>
       </c>
       <c r="D94" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="95">
@@ -1729,7 +1729,7 @@
         <v>ان کے نکلنے کے لیے ایک نرم طریقہ قابل قبول ہے۔</v>
       </c>
       <c r="D95" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="96">
@@ -1743,7 +1743,7 @@
         <v>کچھ کانگریس کے اراکین نیو یارک سٹی کی سب وے میں سوار ہوئے ہیں۔</v>
       </c>
       <c r="D96" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="97">
@@ -1757,7 +1757,7 @@
         <v>ایسکوف کی صحافت نے اسے دوسروں کی نفرت کا سامنا کرایا ہے۔</v>
       </c>
       <c r="D97" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="98">
@@ -1771,7 +1771,7 @@
         <v>بل گیٹس اپنے بل ادا کرنے میں مشکلات کا سامنا کر رہے ہیں۔</v>
       </c>
       <c r="D98" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="99">
@@ -1785,7 +1785,7 @@
         <v>نقاد تمام سماجی ناولوں کو نظرانداز کرتے ہیں۔</v>
       </c>
       <c r="D99" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="100">
@@ -1799,7 +1799,7 @@
         <v>کچھوا کھانے سے آپ کو ایسا لگتا ہے جیسے آپ پرندے کی طرح کھاتے ہیں۔</v>
       </c>
       <c r="D100" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="101">
@@ -1813,7 +1813,7 @@
         <v>ڈلاس مارننگ نیوز میں شائع ہونے والی رپورٹ نے کلنٹن اور لوینسکی کے درمیان ہونے والے واقعے پر مزید روشنی ڈالنے میں مدد کی۔</v>
       </c>
       <c r="D101" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="102">
@@ -1827,7 +1827,7 @@
         <v>اس نے رضامندی ظاہر کی کیونکہ متبادل مواخذہ تھا۔</v>
       </c>
       <c r="D102" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="103">
@@ -1841,7 +1841,7 @@
         <v>جارج بش سینئر اور جارج ڈبلیو بش دونوں جنوبی ریاستوں سے ہیں۔</v>
       </c>
       <c r="D103" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="104">
@@ -1855,7 +1855,7 @@
         <v>زیادہ تر منفی دوبارہ ظاہر ہوگئے۔</v>
       </c>
       <c r="D104" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="105">
@@ -1869,7 +1869,7 @@
         <v>اسقاط حمل ناخوشگوار ہے۔</v>
       </c>
       <c r="D105" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="106">
@@ -1883,7 +1883,7 @@
         <v>کچھ لوگوں کو پرواہ ہے کہ جج ایماندار ہیں یا نہیں۔</v>
       </c>
       <c r="D106" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="107">
@@ -1897,7 +1897,7 @@
         <v>جزوی پیدائش کے اسقاط حمل، ڈی اور ای سب ایک ہی ہیں۔</v>
       </c>
       <c r="D107" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="108">
@@ -1911,7 +1911,7 @@
         <v>یہ جوڑا ایک ہم جنس پرست ویڈیو بنا رہا ہے، انہوں نے پہلے کبھی ملاقات نہیں کی تھی۔</v>
       </c>
       <c r="D108" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="109">
@@ -1925,7 +1925,7 @@
         <v>یہ لگتا تھا کہ یہ ناکام ہونے والا ہے۔</v>
       </c>
       <c r="D109" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="110">
@@ -1939,7 +1939,7 @@
         <v>تازہ کاری کورس لازمی ہے۔</v>
       </c>
       <c r="D110" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="111">
@@ -1953,7 +1953,7 @@
         <v>وجہ جواب کے اندر ہے۔</v>
       </c>
       <c r="D111" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="112">
@@ -1967,7 +1967,7 @@
         <v>عام ڈراموں میں تشدد کا نہ ہونا غلط ہے۔</v>
       </c>
       <c r="D112" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="113">
@@ -1981,7 +1981,7 @@
         <v>میڈیا فائلز کو ایک نئے دور کے طور پر دیکھا جاتا ہے۔</v>
       </c>
       <c r="D113" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="114">
@@ -1995,7 +1995,7 @@
         <v>وہ یقینی طور پر اسے خریدنے والے تھے۔</v>
       </c>
       <c r="D114" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="115">
@@ -2009,7 +2009,7 @@
         <v>وال اسٹریٹ اور میڈیا کے شوقین لوگوں میں بہت سی چیزیں مشترک ہیں۔</v>
       </c>
       <c r="D115" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="116">
@@ -2023,7 +2023,7 @@
         <v>بیمہ کمپنیوں کے خلاف مریضوں کا مقدمہ نہ کرنا ایک درست سمت میں قدم ہوگا۔</v>
       </c>
       <c r="D116" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="117">
@@ -2037,7 +2037,7 @@
         <v>وہ ایک سنجیدہ خطرہ بننے کا ارادہ رکھتا ہے۔</v>
       </c>
       <c r="D117" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="118">
@@ -2051,7 +2051,7 @@
         <v>کہانی بہت مزاحیہ ہے۔</v>
       </c>
       <c r="D118" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="119">
@@ -2065,7 +2065,7 @@
         <v>حکومت پابندیوں پر کنٹرول نہیں رکھتی۔</v>
       </c>
       <c r="D119" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="120">
@@ -2079,7 +2079,7 @@
         <v>اگر آپ کے پاس ایک بچہ ہے جو پہلے ہی بیمہ کے تحت ہے تو یہ پروگرام انہیں شامل نہیں کرے گا۔</v>
       </c>
       <c r="D120" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="121">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -833,7 +833,7 @@
         <v>صرف اس وقت سوئیں جب موسم ٹھنڈا ہو۔</v>
       </c>
       <c r="D31" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="32">
@@ -847,7 +847,7 @@
         <v>پائیدار امن حاصل کیا جائے گا</v>
       </c>
       <c r="D32" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="33">
@@ -861,7 +861,7 @@
         <v>ڈے لائٹس سیونگ ٹائم آپ کی مشق پر اثر انداز ہوگا، اس کو مدنظر رکھیں۔</v>
       </c>
       <c r="D33" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="34">
@@ -875,7 +875,7 @@
         <v>بڑے افراد کو بھی ADHD ہو سکتا ہے۔</v>
       </c>
       <c r="D34" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>بل C-3 ایک استثنا فراہم کرتا ہے جو ججوں کو نمونے لینے کی اجازت دیتا ہے۔</v>
       </c>
       <c r="D35" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +903,7 @@
         <v>اگر آپ تمباکو کی مصنوعات کا استعمال بند کر دیں تو آپ کو پھیپھڑوں کا کینسر نہیں ہوگا۔</v>
       </c>
       <c r="D36" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +917,7 @@
         <v>ملازمین حلف نامے دینے میں ہچکچاہٹ محسوس کر رہے تھے۔</v>
       </c>
       <c r="D37" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="38">
@@ -931,7 +931,7 @@
         <v>دلائی لاما ایک امن پسند رہنما ہیں۔</v>
       </c>
       <c r="D38" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="39">
@@ -945,7 +945,7 @@
         <v>جونگنو کے پاس بسوں کا ایک بیڑا ہے۔</v>
       </c>
       <c r="D39" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="40">
@@ -959,7 +959,7 @@
         <v>یہ شخص کاپی رائٹ قانون کا مطالعہ کرتا ہے۔</v>
       </c>
       <c r="D40" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="41">
@@ -973,7 +973,7 @@
         <v>وٹامن ای نہ لیں۔</v>
       </c>
       <c r="D41" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="42">
@@ -987,7 +987,7 @@
         <v>یورپیوں نے کاپی رائٹ کی تفصیلات تبدیل کیں</v>
       </c>
       <c r="D42" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1001,7 @@
         <v>مکس بن الیکٹرانکس الیکٹرانکس بناتا ہے۔</v>
       </c>
       <c r="D43" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="44">
@@ -1015,7 +1015,7 @@
         <v>طب نے امریکہ میں شروع ہونے کے بعد سے کافی ترقی کی ہے۔</v>
       </c>
       <c r="D44" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="45">
@@ -1029,7 +1029,7 @@
         <v>بیان میں ان لوگوں کے نام شامل ہیں جن کے نام M اور F سے شروع ہوتے ہیں۔</v>
       </c>
       <c r="D45" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="46">
@@ -1057,7 +1057,7 @@
         <v>آپ کا دل آپ کے جسم کی گھڑی کو کنٹرول کرتا ہے۔</v>
       </c>
       <c r="D47" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="48">
@@ -1071,7 +1071,7 @@
         <v>یہ ایک اور پیراگراف ہے۔</v>
       </c>
       <c r="D48" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="49">
@@ -1085,7 +1085,7 @@
         <v>اگر تمباکو نوشی غیر معمولی خلیات کا باعث بنتی ہے، تو غیر معمولی خلیات کینسر کا واحد سبب ہیں۔</v>
       </c>
       <c r="D49" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="50">
@@ -1099,7 +1099,7 @@
         <v>شمالی کوریا نے نئے معائنہ کیمرے نصب کیے ہیں۔</v>
       </c>
       <c r="D50" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="51">
@@ -1113,7 +1113,7 @@
         <v>آپ جیت سکتے ہیں اگر حریف اکیلا ہو۔</v>
       </c>
       <c r="D51" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="52">
@@ -1127,7 +1127,7 @@
         <v>گاڑی بیچنا ایسے ہے جیسے صحرا میں پانی بیچنا۔</v>
       </c>
       <c r="D52" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="53">
@@ -1141,7 +1141,7 @@
         <v>بکنگھم عام طور پر اجلاسوں میں بولتا تھا۔</v>
       </c>
       <c r="D53" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="54">
@@ -1155,7 +1155,7 @@
         <v>اس قسم کے ٹائل کے لیے جھاڑو دینا ضروری ہے۔</v>
       </c>
       <c r="D54" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="55">
@@ -1169,7 +1169,7 @@
         <v>ڈاکٹر مریض کی ویکسینیشن کی تاریخ کا ریکارڈ رکھیں گے۔</v>
       </c>
       <c r="D55" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="56">
@@ -1183,7 +1183,7 @@
         <v>سوال کا جواب دینا مشکل ہے۔</v>
       </c>
       <c r="D56" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="57">
@@ -1197,7 +1197,7 @@
         <v>کاپی رائٹ کے قوانین 200 سال سے زیادہ عرصے سے موجود ہیں۔</v>
       </c>
       <c r="D57" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="58">
@@ -1211,7 +1211,7 @@
         <v>یہ اہم خط بیث ایولینڈ کے کیے گئے تبصروں کے بارے میں ہے۔</v>
       </c>
       <c r="D58" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="59">
@@ -1225,7 +1225,7 @@
         <v>ہالومی پنیر باہر کھانے کے لیے بہترین ہے۔</v>
       </c>
       <c r="D59" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="60">
@@ -1239,7 +1239,7 @@
         <v>بیلجیم زیادہ تر فلیمنش ہے۔</v>
       </c>
       <c r="D60" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="61">
@@ -1253,7 +1253,7 @@
         <v>لائم بیماری جینیاتی ہے۔</v>
       </c>
       <c r="D61" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="62">
@@ -1267,7 +1267,7 @@
         <v>آسٹریا ایک فلم ہے۔</v>
       </c>
       <c r="D62" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="63">
@@ -1281,7 +1281,7 @@
         <v>ریچ گرل میں ایک جرمن ریپر شامل ہے۔</v>
       </c>
       <c r="D63" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="64">
@@ -1295,7 +1295,7 @@
         <v>لوئس ٹوملنسن ایک ITV کامیڈی میں نظر آئے۔</v>
       </c>
       <c r="D64" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="65">
@@ -1309,7 +1309,7 @@
         <v>جینیفر گارنر ایک فلم میں تھیں۔</v>
       </c>
       <c r="D65" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="66">
@@ -1323,7 +1323,7 @@
         <v>جیمز ولسن ایک حقیقی شخص ہیں جو ابھی تک ایک خیالی کردار میں تبدیل نہیں ہوئے ہیں۔</v>
       </c>
       <c r="D66" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="67">
@@ -1337,7 +1337,7 @@
         <v>جناب مائیکل کے خلاف مقدمہ چلایا جائے گا۔</v>
       </c>
       <c r="D67" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="68">
@@ -1365,7 +1365,7 @@
         <v>یہ چینل اب انٹرنیٹ سے ڈاؤن لوڈ کے لیے ہٹا دیا گیا ہے۔</v>
       </c>
       <c r="D69" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="70">
@@ -1379,7 +1379,7 @@
         <v>چینل ڈاؤن لوڈ کرنے کے لیے ایک شرط یہ ہے کہ آپ کے پاس انٹرنیٹ ایکسپلورر نصب ہونا چاہیے۔</v>
       </c>
       <c r="D70" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="71">
@@ -1393,7 +1393,7 @@
         <v>ووٹروں کی ایک مقررہ تعداد ہے۔</v>
       </c>
       <c r="D71" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="72">
@@ -1407,7 +1407,7 @@
         <v>آپشنز کے تاجروں نے شولس اور مٹن کے لیے تالی بجائی۔</v>
       </c>
       <c r="D72" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="73">
@@ -1421,7 +1421,7 @@
         <v>اگر ہم دنیا کے میکڈونلڈز پر توجہ نہیں دیتے تو وہ خود ہی چلے جائیں گے۔</v>
       </c>
       <c r="D73" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="74">
@@ -1435,7 +1435,7 @@
         <v>یہ ایک بہت مثبت علامت ہے کہ نئے باہمی فنڈ کی رقم کا 20% انڈیکس فنڈز میں جا رہا ہے۔</v>
       </c>
       <c r="D74" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="75">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -2527,7 +2527,7 @@
         <v>اگر میں بدل جاؤں تو کیا ہم دوست رہیں گے؟</v>
       </c>
       <c r="D152" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="153">
@@ -2541,7 +2541,7 @@
         <v>اس سے خاص طور پر کیلیفورنیا کے فوٹوگرافروں کے بارے میں پوچھا گیا۔</v>
       </c>
       <c r="D153" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="154">
@@ -2555,7 +2555,7 @@
         <v>ہر پانچ سال یا ہر تین سال میں تنصیبات ہونے سے مزدوری کے اخراجات متاثر ہوتے ہیں۔</v>
       </c>
       <c r="D154" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="155">
@@ -2569,7 +2569,7 @@
         <v>جی او پی میں ووٹر کی شرکت کم ہے۔</v>
       </c>
       <c r="D155" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="156">
@@ -2583,7 +2583,7 @@
         <v>میں کتنی دیر انتظار کروں کہ کوئی اپنے کپڑے واشر یا ڈرائر سے نکالے؟</v>
       </c>
       <c r="D156" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="157">
@@ -2597,7 +2597,7 @@
         <v>جج نے بلند آواز والی خواتین کی طرف اشارہ کیا اور فوری خاموشی کا مطالبہ کیا۔</v>
       </c>
       <c r="D157" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="158">
@@ -2611,7 +2611,7 @@
         <v>یہ جانا جاتا ہے کہ آپ ان کی زبان کو سن کر سمجھیں گے جب وہ گاتے ہیں۔</v>
       </c>
       <c r="D158" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="159">
@@ -2625,7 +2625,7 @@
         <v>اس کی دادی اب بہت خراب حالت میں ہیں۔</v>
       </c>
       <c r="D159" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="160">
@@ -2639,7 +2639,7 @@
         <v>اگر آپ یہ خاص کارڈ بھیجتے ہیں تو آپ کو ایک مفت کافی ملے گی۔</v>
       </c>
       <c r="D160" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="161">
@@ -2653,7 +2653,7 @@
         <v>اگر ہم یہ ثبوت دیکھ سکتے ہیں کہ وہ لوگ ملک سے باہر جا رہے ہیں تو وہ لوگ یہاں نہیں رہیں گے۔</v>
       </c>
       <c r="D161" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="162">
@@ -2667,7 +2667,7 @@
         <v>اگرچہ یہ بہت پہلے کی بات ہے، لیکن یہ اب بھی واقعی اہم ہے۔</v>
       </c>
       <c r="D162" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="163">
@@ -2681,7 +2681,7 @@
         <v>کچھ لوگ سوچتے ہیں کہ کیا کلنٹن عدالت میں طلب کیے جانے پر پانچویں ترمیم کا سہارا لیں گے۔</v>
       </c>
       <c r="D163" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="164">
@@ -2695,7 +2695,7 @@
         <v>یہ وکٹوریہ پک گارڈنز تک پہنچنے کے لیے ایک پیدل سفر ہے۔</v>
       </c>
       <c r="D164" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="165">
@@ -2709,7 +2709,7 @@
         <v>اگر آپ اسے سال کے آخر سے پہلے استعمال نہیں کرتے تو یہ ختم ہو جائے گا۔</v>
       </c>
       <c r="D165" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="166">
@@ -2723,7 +2723,7 @@
         <v>صدمے اور ایمرجنسی جرائد میں شائع ہونا طریقوں میں تبدیلی کا واحد ذریعہ ہے۔</v>
       </c>
       <c r="D166" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="167">
@@ -2737,7 +2737,7 @@
         <v>بیچنے والے ہمیشہ کسی ریاست میں کافی جسمانی موجودگی نہیں رکھتے۔</v>
       </c>
       <c r="D167" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="168">
@@ -2751,7 +2751,7 @@
         <v>راوی ایک ویمپائر ہے اور یہ ان کی ویمپائر کی طاقتوں میں سے ایک ہے۔</v>
       </c>
       <c r="D168" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="169">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -2765,7 +2765,7 @@
         <v>اگر موجودہ سود کی شرح وہی رہے تو خزانہ سیکیورٹی کی مارکیٹ قیمت وہی رہے گی۔</v>
       </c>
       <c r="D169" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="170">
@@ -2779,7 +2779,7 @@
         <v>یہ ایک عجیب گاڑی ہے جسے ساب کہتے ہیں، مجھے یقین نہیں ہے کہ یہ وہاں موجود ہے یا نہیں۔</v>
       </c>
       <c r="D170" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="171">
@@ -2793,7 +2793,7 @@
         <v>کوئی بھی حکومت اس مصنوعات پر پابندی لگانے کی ایک بھی وجہ نہیں ہے۔</v>
       </c>
       <c r="D171" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="172">
@@ -2807,7 +2807,7 @@
         <v>کیا آپ کو سمجھ نہیں آیا کہ کریڈٹ کیسے کام کرتا ہے؟</v>
       </c>
       <c r="D172" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="173">
@@ -2821,7 +2821,7 @@
         <v>ہمیں کمپنی کے ساتھ کوئی بلنگ کا تجربہ نہیں ہوا۔</v>
       </c>
       <c r="D173" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="174">
@@ -2835,7 +2835,7 @@
         <v>یہ یقینی ہے کہ کوئی بات چیت نہ ہونے کا مطلب ہے کہ کوئی جھوٹ نہیں۔</v>
       </c>
       <c r="D174" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="175">
@@ -2849,7 +2849,7 @@
         <v>اگر آپ کی صحت خراب ہے تو ریٹائرمنٹ ہوم ایک اچھا خیال ہے۔</v>
       </c>
       <c r="D175" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="176">
@@ -2863,7 +2863,7 @@
         <v>اگر اس کی مفت پیشکش کی جائے تو اس کی طلب میں اضافہ ہوگا۔</v>
       </c>
       <c r="D176" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="177">
@@ -2877,7 +2877,7 @@
         <v>وہ سخت حالات کا سامنا کرنے اور روس میں رہنے کے لیے تیار تھے۔</v>
       </c>
       <c r="D177" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="178">
@@ -2891,7 +2891,7 @@
         <v>ہمارے پاس گریڈ کے بجٹ نہیں ہیں۔</v>
       </c>
       <c r="D178" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="179">
@@ -2905,7 +2905,7 @@
         <v>اگر یہ گی آولینٹی کے لیے نہ ہوتا تو 18ویں صدی کا پیلازو گراسی ناقابل پیشکش ہوتا۔</v>
       </c>
       <c r="D179" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="180">
@@ -2919,7 +2919,7 @@
         <v>والدین جو اپنے بچوں کے ساتھ کام کرتے ہیں انہیں ایک بڑی ناکامی کا سامنا کرتے ہیں۔</v>
       </c>
       <c r="D180" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="181">
@@ -2933,7 +2933,7 @@
         <v>ہم نے اس سے اس کے بارے میں نہیں سیکھا۔</v>
       </c>
       <c r="D181" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="182">
@@ -2947,7 +2947,7 @@
         <v>لِنکن فکر مند نہیں تھا اور آہستہ آہستہ چلا۔</v>
       </c>
       <c r="D182" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="183">
@@ -2961,7 +2961,7 @@
         <v>میں نے سوچا کہ کیا میں نے یہ اچھی طرح کیا۔</v>
       </c>
       <c r="D183" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="184">
@@ -2975,7 +2975,7 @@
         <v>میں نے تمہیں اپنی چھوٹی تلوار سے مارا۔</v>
       </c>
       <c r="D184" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="185">
@@ -2989,7 +2989,7 @@
         <v>یہ واضح ہے کہ ہم جیت گئے۔</v>
       </c>
       <c r="D185" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="186">
@@ -3003,7 +3003,7 @@
         <v>جب سورج کی روشنی نہیں ہوتی، تو ایسا لگتا ہے جیسے میں ایک غار میں رہ رہا ہوں۔</v>
       </c>
       <c r="D186" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="187">
@@ -3017,7 +3017,7 @@
         <v>چلنے سے آپ کھو جائیں گے</v>
       </c>
       <c r="D187" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="188">
@@ -3031,7 +3031,7 @@
         <v>رینکوں میں شکایات کا کوئی نتیجہ نہیں نکلا۔</v>
       </c>
       <c r="D188" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="189">
@@ -3045,7 +3045,7 @@
         <v>سب کو معلوم تھا کہ ٹومی اتنا ہوشیار نہیں تھا کہ اس تعلق کو سمجھ سکے۔</v>
       </c>
       <c r="D189" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="190">
@@ -3059,7 +3059,7 @@
         <v>مجھے شک ہے کہ مانچسٹر میں لڑکی صرف ایک جال تھی۔</v>
       </c>
       <c r="D190" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="191">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -3073,7 +3073,7 @@
         <v>احکام ایک مذہب نہیں ہیں۔</v>
       </c>
       <c r="D191" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="192">
@@ -3087,7 +3087,7 @@
         <v>اگر تنظیم کو اپنے کاروباری مقاصد کی واضح سمجھ ہے تو وہ تجویز کردہ معلوماتی نظام کو ان مقاصد کے حصول کے لیے استعمال کر سکے گی۔</v>
       </c>
       <c r="D192" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="193">
@@ -3101,7 +3101,7 @@
         <v>وہ غلطی نہیں کرے گا۔</v>
       </c>
       <c r="D193" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="194">
@@ -3115,7 +3115,7 @@
         <v>مصنوعات کو نامساعد ماحولیاتی حالات کا مقابلہ کرنے کی صلاحیت کے لیے جانچا جاتا ہے۔</v>
       </c>
       <c r="D194" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="195">
@@ -3129,7 +3129,7 @@
         <v>وہ کہیں گے کہ وہ جانے کے لیے تیار تھے۔</v>
       </c>
       <c r="D195" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="196">
@@ -3143,7 +3143,7 @@
         <v>ہمیں قوانین تبدیل کرنے ہوں گے۔</v>
       </c>
       <c r="D196" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="197">
@@ -3157,7 +3157,7 @@
         <v>میں اس پتے پر نہیں ہوں۔</v>
       </c>
       <c r="D197" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="198">
@@ -3171,7 +3171,7 @@
         <v>ملک فوج پر کنٹرول حاصل کرنے کے قابل ہوگا۔</v>
       </c>
       <c r="D198" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="199">
@@ -3185,7 +3185,7 @@
         <v>اگر پولیس کو یقین ہو کہ یہ جرم ایک ہی شخص نے کیا ہے تو وہ اس شخص کو گرفتار کریں گے۔</v>
       </c>
       <c r="D199" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="200">
@@ -3199,7 +3199,7 @@
         <v>میں خود ہی یہ کروں گا۔</v>
       </c>
       <c r="D200" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="201">
@@ -3213,7 +3213,7 @@
         <v>اگر نئی پالیسی نافذ کی گئی تو صحت کی دیکھ بھال کا نظام دباؤ میں ہوگا۔</v>
       </c>
       <c r="D201" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="202">
@@ -3227,7 +3227,7 @@
         <v>میں یہ کر سکتا ہوں۔</v>
       </c>
       <c r="D202" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="203">
@@ -3241,7 +3241,7 @@
         <v>ڈیموکریٹس وائٹ ہاؤس جیتیں گے۔</v>
       </c>
       <c r="D203" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="204">
@@ -3255,7 +3255,7 @@
         <v>میں آپ کو ایک خط لکھوں گا۔</v>
       </c>
       <c r="D204" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="205">
@@ -3269,7 +3269,7 @@
         <v>آپ ٹرین لے سکتے ہیں۔</v>
       </c>
       <c r="D205" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="206">
@@ -3283,7 +3283,7 @@
         <v>اگر وہ اپنی آنکھیں گھماتی تو وہ طنزیہ ہوتی۔</v>
       </c>
       <c r="D206" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="207">
@@ -3297,7 +3297,7 @@
         <v>آپ جا نہیں رہے ہیں۔</v>
       </c>
       <c r="D207" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="208">
@@ -3311,7 +3311,7 @@
         <v>ٹیسٹنگ کی لاگت زیادہ ہوگی۔</v>
       </c>
       <c r="D208" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="209">
@@ -3325,7 +3325,7 @@
         <v>اگر آپ کو کچھ نہیں ملتا، تو آپ اس کے مستحق نہیں ہیں۔</v>
       </c>
       <c r="D209" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="210">
@@ -3339,7 +3339,7 @@
         <v>میں کوئی ذہین آدمی نہیں ہوں۔</v>
       </c>
       <c r="D210" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="211">
@@ -3353,7 +3353,7 @@
         <v>فلم کا لفظ "مصیبت" ہے۔</v>
       </c>
       <c r="D211" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="212">
@@ -3367,7 +3367,7 @@
         <v>چاند پر موجود آدمی کے پاس بھیجنے کے لیے کوئی پیغام نہیں ہے۔</v>
       </c>
       <c r="D212" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="213">
@@ -3381,7 +3381,7 @@
         <v>تم میرے جیسا ہی بن جاؤ گے۔</v>
       </c>
       <c r="D213" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="214">
@@ -3409,7 +3409,7 @@
         <v>ہم دنیا کا واحد ملک ہوں گے جو نہیں کرے گا۔</v>
       </c>
       <c r="D215" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="216">
@@ -3423,7 +3423,7 @@
         <v>پوسٹل سروس بند نہیں ہے۔</v>
       </c>
       <c r="D216" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="217">
@@ -3437,7 +3437,7 @@
         <v>شمالی ویتنامی ہم پر حملہ نہ کرتے اگر ہم نے ان پر حملہ نہ کیا ہوتا۔</v>
       </c>
       <c r="D217" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="218">
@@ -3451,7 +3451,7 @@
         <v>یہ خیال اچھی طرح سوچا نہیں گیا۔</v>
       </c>
       <c r="D218" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="219">
@@ -3465,7 +3465,7 @@
         <v>ایک چاقو میرے دل میں گھونپ دیا گیا۔</v>
       </c>
       <c r="D219" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="220">
@@ -3479,7 +3479,7 @@
         <v>اگر آپ میری بات نہیں مانیں گے تو آپ کو نتائج کا سامنا کرنا پڑے گا۔</v>
       </c>
       <c r="D220" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="221">
@@ -3493,7 +3493,7 @@
         <v>اگر آپ بے گناہ ہیں تو آپ کو بے گناہ سمجھا جائے گا۔</v>
       </c>
       <c r="D221" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="222">
@@ -3507,7 +3507,7 @@
         <v>سینیٹ نے بجٹ منظور کر لیا۔</v>
       </c>
       <c r="D222" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="223">
@@ -3521,7 +3521,7 @@
         <v>آپ پر بندوق کے ساتھ اعتماد نہیں کیا جا سکتا۔</v>
       </c>
       <c r="D223" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="224">
@@ -3535,7 +3535,7 @@
         <v>ترسیل کے راستے کے منافع کے مارجن کی تقسیم کا معیاری انحراف چھوٹا ہے۔</v>
       </c>
       <c r="D224" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="225">
@@ -3549,7 +3549,7 @@
         <v>سوالات ایک جیسے نہیں ہیں۔</v>
       </c>
       <c r="D225" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="226">
@@ -3563,7 +3563,7 @@
         <v>پرانا مقولہ سچ ہے۔</v>
       </c>
       <c r="D226" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="227">
@@ -3577,7 +3577,7 @@
         <v>گورنر سے توقع کی جا رہی تھی کہ وہ ایک خاص پراسیکیوٹر مقرر کریں گے۔</v>
       </c>
       <c r="D227" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="228">
@@ -3591,7 +3591,7 @@
         <v>ریاستہائے متحدہ ایک کیلے کی جمہوریت بن جائے گی۔</v>
       </c>
       <c r="D228" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="229">
@@ -3605,7 +3605,7 @@
         <v>نتیجہ یہ ہے:</v>
       </c>
       <c r="D229" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="230">
@@ -3619,7 +3619,7 @@
         <v>نگہبان صرف اس وقت چیزوں پر گہری نظر رکھ سکتے ہیں جب وہ نگہبانوں پر بھی گہری نظر رکھیں۔</v>
       </c>
       <c r="D230" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="231">
@@ -3633,7 +3633,7 @@
         <v>اس کا نتیجہ یہ ہوا کہ فنون لطیفہ میں عوامی دلچسپی میں اضافہ ہوا۔</v>
       </c>
       <c r="D231" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="232">
@@ -3647,7 +3647,7 @@
         <v>مسئلے کی بنیادی وجوہات کی شناخت نہیں کی جا رہی ہے۔</v>
       </c>
       <c r="D232" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="233">
@@ -3661,7 +3661,7 @@
         <v>کتاب جادوئی ہے۔</v>
       </c>
       <c r="D233" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="234">
@@ -3675,7 +3675,7 @@
         <v>اگر آپ ایک اچھے میز کی درخواست کریں گے، تو آپ کو ایک اچھا میز ملے گا۔</v>
       </c>
       <c r="D234" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="235">
@@ -3689,7 +3689,7 @@
         <v>مستقبل میں ایسے کسی منظر نامے کا وقوع پذیر ہونا ناممکن ہے۔</v>
       </c>
       <c r="D235" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="236">
@@ -3703,7 +3703,7 @@
         <v>منتقلی کی گئی جائیداد کی منصفانہ قیمت موصول کردہ جائیداد کی قیمت کے برابر ہے۔</v>
       </c>
       <c r="D236" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="237">
@@ -3717,7 +3717,7 @@
         <v>جس آدمی نے اسے ایجاد کیا ہے، اسے اس کے ساتھ ایک مسئلہ ہے۔</v>
       </c>
       <c r="D237" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="238">
@@ -3731,7 +3731,7 @@
         <v>اگر کہا جا سکتا ہے کہ ہماری ایک ہی شناخت ہے تو وہ ایک اجتماعی شناخت ہے۔</v>
       </c>
       <c r="D238" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="239">
@@ -3745,7 +3745,7 @@
         <v>پارٹی میں اپنا سوٹ پہننا بدقسمتی نہیں ہے۔</v>
       </c>
       <c r="D239" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="240">
@@ -3759,7 +3759,7 @@
         <v>کتا کمرے میں نہیں تھا، اس لیے آواز سنائی نہیں دی۔</v>
       </c>
       <c r="D240" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="241">
@@ -3773,7 +3773,7 @@
         <v>فیوہر نے حراستی کیمپوں میں یہودیوں کی تباہی کا حکم نہیں دیا۔</v>
       </c>
       <c r="D241" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="242">
@@ -3787,7 +3787,7 @@
         <v>اگر آپ میری جگہ ہوتے تو آپ زیادہ محتاط ہوتے۔</v>
       </c>
       <c r="D242" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="243">
@@ -3801,7 +3801,7 @@
         <v>میں جانتا ہوں کہ یہ اتنا سچ ہے۔</v>
       </c>
       <c r="D243" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="244">
@@ -3815,7 +3815,7 @@
         <v>اگر اس نے رکنے کا فیصلہ نہ کیا تو اسے ایک بےوقوف سمجھا جاتا۔</v>
       </c>
       <c r="D244" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="245">
@@ -3829,7 +3829,7 @@
         <v>اگر میں سو گیا تو میں فلم سے رہ جاؤں گا۔</v>
       </c>
       <c r="D245" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="246">
@@ -3843,7 +3843,7 @@
         <v>یہ سہولت یہ تعین نہیں کر سکے گی کہ آیا یہ اس قاعدے کی ضروریات کے مطابق ہے یا نہیں۔</v>
       </c>
       <c r="D246" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="247">
@@ -3857,7 +3857,7 @@
         <v>وہ ایسے لگ رہی ہے جیسے اسے ابھی ابھی تنخواہ ملی ہے۔</v>
       </c>
       <c r="D247" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="248">
@@ -3871,7 +3871,7 @@
         <v>مجھے نہیں کرنا پڑے گا۔</v>
       </c>
       <c r="D248" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="249">
@@ -3885,7 +3885,7 @@
         <v>صدر ایک سیاستدان ہے۔</v>
       </c>
       <c r="D249" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="250">
@@ -3899,7 +3899,7 @@
         <v>اگر کوئی واضح خطرہ نہیں ہے تو ایک فرضی خطرہ بنانا اچھا خیال ہے۔</v>
       </c>
       <c r="D250" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="251">
@@ -3913,7 +3913,7 @@
         <v>پارٹی اس مسئلے پر ایک موقف اختیار کرے گی۔</v>
       </c>
       <c r="D251" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="252">
@@ -3927,7 +3927,7 @@
         <v>پوسٹل سروس آئندہ کم از کم دس سالوں کے لیے ریٹائرے کے صحت کے فوائد کے لیے وفاقی حکومت کو اپنی موجودہ ذمہ داری ادا کرنے کے قابل ہوگی۔</v>
       </c>
       <c r="D252" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="253">
@@ -3941,7 +3941,7 @@
         <v>بحران مزید بگڑتا رہے گا۔</v>
       </c>
       <c r="D253" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="254">
@@ -3955,7 +3955,7 @@
         <v>قرض کا زیادہ ہونا ایک مسئلہ ہے۔</v>
       </c>
       <c r="D254" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="255">
@@ -3969,7 +3969,7 @@
         <v>جنگ ختم نہیں ہوئی۔</v>
       </c>
       <c r="D255" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="256">
@@ -3983,7 +3983,7 @@
         <v>مسئلے کا بہترین حل یہ ہے کہ تمام گاڑیوں سے چھٹکارا حاصل کیا جائے۔</v>
       </c>
       <c r="D256" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="257">
@@ -3997,7 +3997,7 @@
         <v>شہری کونسل کو یہ کرنا ہوگا۔</v>
       </c>
       <c r="D257" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="258">
@@ -4011,7 +4011,7 @@
         <v>اگر آپ کو لائن میں لمبی انتظار ہے تو سنیک بار نہ جائیں۔ یہ عام طور پر شور مچاتے بچوں سے بھرا ہوتا ہے۔</v>
       </c>
       <c r="D258" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="259">
@@ -4025,7 +4025,7 @@
         <v>اگر آپ یہ نہیں کریں گے تو آپ کو اس پر افسوس ہوگا۔</v>
       </c>
       <c r="D259" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="260">
@@ -4039,7 +4039,7 @@
         <v>کل کی ٹیکنالوجی آج کے مسائل کو حل کرنے کی صلاحیت رکھتی ہے۔</v>
       </c>
       <c r="D260" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="261">
@@ -4053,7 +4053,7 @@
         <v>خاندان اور اسکول میں ہونے والا سماجی تعامل اور سیکھنے کا عمل متاثر ہوتا ہے۔</v>
       </c>
       <c r="D261" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="262">
@@ -4067,7 +4067,7 @@
         <v>شراب کو سرکہ میں تبدیل کیا جا سکتا ہے۔</v>
       </c>
       <c r="D262" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="263">
@@ -4081,7 +4081,7 @@
         <v>ڈالر گرے گا اور ین بڑھے گا۔</v>
       </c>
       <c r="D263" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="264">
@@ -4095,7 +4095,7 @@
         <v>یہ ترمیم یکم جنوری 2017 کو نافذ العمل ہوگی۔</v>
       </c>
       <c r="D264" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="265">
@@ -4109,7 +4109,7 @@
         <v>ہمیں بچانے والی واحد چیز یہ ہے کہ اگر ہم باہمی سمجھوتے کے علاقے تک پہنچنے میں کامیاب ہو جائیں۔</v>
       </c>
       <c r="D265" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="266">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -4123,7 +4123,7 @@
         <v>اسکول ڈسٹرکٹ بانڈز جاری نہیں کر سکتا۔</v>
       </c>
       <c r="D266" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="267">
@@ -4137,7 +4137,7 @@
         <v>یہ واضح نہیں ہے کہ اگر مزدوری کے اخراجات کو ایڈجسٹ نہیں کیا گیا تو مزدوری کی پیداوری کو ایڈجسٹ کیا جائے گا یا نہیں۔</v>
       </c>
       <c r="D267" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="268">
@@ -4151,7 +4151,7 @@
         <v>اچھے لوگ ضروری نہیں کہ برے ہوں۔</v>
       </c>
       <c r="D268" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="269">
@@ -4165,7 +4165,7 @@
         <v>مسٹر اسمتھرز نے ایک بھوت دیکھا ہے۔</v>
       </c>
       <c r="D269" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="270">
@@ -4179,7 +4179,7 @@
         <v>موجودہ ماڈل خراب ہے۔</v>
       </c>
       <c r="D270" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="271">
@@ -4193,7 +4193,7 @@
         <v>مریضوں میں binge drinking کی شناخت صرف ایک نشست میں پینے والے مشروبات کی تعداد سے نہیں کی جاتی۔</v>
       </c>
       <c r="D271" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="272">
@@ -4207,7 +4207,7 @@
         <v>پروڈیوسر کو کم از کم تنخواہ ادا کرنی ہوگی۔</v>
       </c>
       <c r="D272" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="273">
@@ -4221,7 +4221,7 @@
         <v>نیا معاہدہ یکم جنوری 2015 سے نافذ العمل ہوگا۔</v>
       </c>
       <c r="D273" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="274">
@@ -4235,7 +4235,7 @@
         <v>میں جانتا کہ یہ کیسے کرنا ہے۔</v>
       </c>
       <c r="D274" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="275">
@@ -4249,7 +4249,7 @@
         <v>اگر آپ بہت زیادہ کامل پسند نہیں ہیں تو آپ ایک اچھا مصنوعات بنا سکیں گے۔</v>
       </c>
       <c r="D275" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="276">
@@ -4263,7 +4263,7 @@
         <v>مالیاتی شعبہ اہم نہیں ہے۔</v>
       </c>
       <c r="D276" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="277">
@@ -4277,7 +4277,7 @@
         <v>مناسب اگلا قدم یہ ہے کہ انٹیک پروگرام سے رابطہ کریں تاکہ انٹیک II پروگرام کے لیے حوالہ حاصل کیا جا سکے۔</v>
       </c>
       <c r="D277" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="278">
@@ -4291,7 +4291,7 @@
         <v>سپاہی پہلے ہی مر چکے ہیں۔</v>
       </c>
       <c r="D278" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="279">
@@ -4305,7 +4305,7 @@
         <v>مجھے ایک نوکری تلاش کرنی ہے۔</v>
       </c>
       <c r="D279" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="280">
@@ -4319,7 +4319,7 @@
         <v>اس نے کہا کہ وہ میرے ساتھ البرٹ ہال میں ایک کنسرٹ پر جائے گا۔</v>
       </c>
       <c r="D280" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="281">
@@ -4333,7 +4333,7 @@
         <v>میں نے ابھی تک اسے نہیں پڑھا۔</v>
       </c>
       <c r="D281" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="282">
@@ -4347,7 +4347,7 @@
         <v>اگر موجودہ سود کی شرح وہی رہے تو خزانہ سیکیورٹی کی مارکیٹ کی قیمت وہی رہے گی۔</v>
       </c>
       <c r="D282" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="283">
@@ -4361,7 +4361,7 @@
         <v>غیر منافع بخش اداروں کے پاس دنیا کو بدلنے کی طاقت نہیں ہوتی۔</v>
       </c>
       <c r="D283" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="284">
@@ -4375,7 +4375,7 @@
         <v>میں ایسا کرتا، اگر میں مدد کرنے کی پوزیشن میں ہوتا۔</v>
       </c>
       <c r="D284" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="285">
@@ -4389,7 +4389,7 @@
         <v>مشین مزدور کا مالک نہیں تھا۔</v>
       </c>
       <c r="D285" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="286">
@@ -4403,7 +4403,7 @@
         <v>آپ کو یقین ہے۔</v>
       </c>
       <c r="D286" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="287">
@@ -4417,7 +4417,7 @@
         <v>اس کا دوبارہ جائزہ لینا ہوگا۔</v>
       </c>
       <c r="D287" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="288">
@@ -4431,7 +4431,7 @@
         <v>میں سوچتا ہوں کہ آپ بہت ہوشیار ہیں۔</v>
       </c>
       <c r="D288" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="289">
@@ -4445,7 +4445,7 @@
         <v>وہ کسی نہ کسی طرح جواب دیتا۔</v>
       </c>
       <c r="D289" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="290">
@@ -4459,7 +4459,7 @@
         <v>وہ سینما جانے کی استطاعت نہیں رکھتے۔</v>
       </c>
       <c r="D290" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="291">
@@ -4473,7 +4473,7 @@
         <v>اگر آپ کو بحث کرنی ہے تو اپنی گرل فرینڈ کے ساتھ کریں۔</v>
       </c>
       <c r="D291" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="292">
@@ -4487,7 +4487,7 @@
         <v>اگر ہمارے پاس متضاد جوڑا ہو تو ہم ہمیشہ ایک جھوٹی تقسیم حاصل کر سکتے ہیں۔</v>
       </c>
       <c r="D292" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="293">
@@ -4501,7 +4501,7 @@
         <v>کمپنی کاروبار سے باہر ہو جائے گی۔</v>
       </c>
       <c r="D293" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="294">
@@ -4515,7 +4515,7 @@
         <v>ملک کو اس مسئلے میں کوئی دلچسپی نہیں ہے، کیونکہ میڈیا نے اسے نظر انداز کرنے کا فیصلہ کیا ہے۔</v>
       </c>
       <c r="D294" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="295">
@@ -4529,7 +4529,7 @@
         <v>بچہ ناجائز نہیں ہے۔</v>
       </c>
       <c r="D295" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="296">
@@ -4543,7 +4543,7 @@
         <v>اگر نئی قانون سازی منظور ہو جاتی ہے تو خواتین کے امور کے لیے ایک علیحدہ وزارت قائم کی جائے گی۔</v>
       </c>
       <c r="D296" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="297">
@@ -4557,7 +4557,7 @@
         <v>فوج کی تعداد میں بہت کمی کی گئی ہے۔</v>
       </c>
       <c r="D297" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="298">
@@ -4571,7 +4571,7 @@
         <v>اگر آپ مرمت نہیں کرتے ہیں تو آپ مرمت کے تمام اخراجات کے لئے ذمہ دار ہوں گے۔</v>
       </c>
       <c r="D298" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="299">
@@ -4585,7 +4585,7 @@
         <v>اگر آپ کو شکایت ہے تو صدر کو لکھیں۔</v>
       </c>
       <c r="D299" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="300">
@@ -4599,7 +4599,7 @@
         <v>مجھے معلوم تھا کہ تم مجھے بتاؤ گے۔</v>
       </c>
       <c r="D300" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="301">
@@ -4613,7 +4613,7 @@
         <v>آج کا شیف کا خاص کھانا رات کے کھانے کے لیے ایک اچھا مقام ہے۔</v>
       </c>
       <c r="D301" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="302">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -4627,7 +4627,7 @@
         <v>بروک نے پہلی بار تھائی کھانا آزمایا۔</v>
       </c>
       <c r="D302" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="303">
@@ -4641,7 +4641,7 @@
         <v>پی60 ایک خط ہے جو ایک اسکول بورڈ کے رکن نے ایڈیٹر کو لکھا ہے جس میں وہ اس معاملے میں ہونے والے واقعات کو دوبارہ بیان کرتے ہیں۔</v>
       </c>
       <c r="D303" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="304">
@@ -4655,7 +4655,7 @@
         <v>اسکول کی لائبریریوں میں سالانہ کتابیں ہوتی ہیں۔</v>
       </c>
       <c r="D304" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="305">
@@ -4669,7 +4669,7 @@
         <v>یہ کہانی ایک آدمی نے رپورٹ کی تھی۔</v>
       </c>
       <c r="D305" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="306">
@@ -4683,7 +4683,7 @@
         <v>راهنما لوگوں کو دن کے وسط میں کافی تیار کرنے کی سفارش نہیں کرتا۔</v>
       </c>
       <c r="D306" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="307">
@@ -4697,7 +4697,7 @@
         <v>میں جیسن کے ساتھ اچھی طرح نہیں ملتا تھا۔</v>
       </c>
       <c r="D307" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="308">
@@ -4711,7 +4711,7 @@
         <v>وہ ایک وائلن کی طرف اشارہ کر رہے تھے۔</v>
       </c>
       <c r="D308" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="309">
@@ -4725,7 +4725,7 @@
         <v>کچھ مادوں کو ان کے ماحولیاتی اثرات کی وجہ سے مارکیٹ سے ہٹانے کی ضرورت ہے۔</v>
       </c>
       <c r="D309" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="310">
@@ -4739,7 +4739,7 @@
         <v>کمیشن ہوا کی طاقت پر ایک تجویز پر غور کر رہا ہے۔</v>
       </c>
       <c r="D310" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="311">
@@ -4753,7 +4753,7 @@
         <v>وہ آدمی جرمنی سے نفرت کرتا ہے۔</v>
       </c>
       <c r="D311" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="312">
@@ -4767,7 +4767,7 @@
         <v>پانی کی ضرورت ہوگی</v>
       </c>
       <c r="D312" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="313">
@@ -4781,7 +4781,7 @@
         <v>مارک کیونڈش نے ٹور ڈی فرانس سے دستبرداری اختیار کر لی۔</v>
       </c>
       <c r="D313" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="314">
@@ -4795,7 +4795,7 @@
         <v>جب آپ یہ بتائیں کہ آپ کو کیوں لگتا ہے کہ وہ آپ کی کہانی کے لیے ایک اچھا ذریعہ ہیں، تو انٹرویو کے بعد ان کو بلیک میل کرنے کا انتظار کریں۔</v>
       </c>
       <c r="D314" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="315">
@@ -4809,7 +4809,7 @@
         <v>شاہی حامی صرف پیلا پہنتے ہیں۔</v>
       </c>
       <c r="D315" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="316">
@@ -4823,7 +4823,7 @@
         <v>اچھی یاد کے بارے میں سوچیں، یہ خط لکھنے کے لئے مفید ہو سکتی ہے۔</v>
       </c>
       <c r="D316" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="317">
@@ -4837,7 +4837,7 @@
         <v>دائیں تیر نے صحیح راستہ دکھایا۔</v>
       </c>
       <c r="D317" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="318">
@@ -4851,7 +4851,7 @@
         <v>کچھ پھلوں سے پرہیز کرنا بہتر ہے۔</v>
       </c>
       <c r="D318" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="319">
@@ -4865,7 +4865,7 @@
         <v>ٹائی ڈائی اپنے اگلے جنم دن پر اٹھارہ سال کا ہو جائے گا۔</v>
       </c>
       <c r="D319" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="320">
@@ -4879,7 +4879,7 @@
         <v>نئے طالب علم کو ارد گرد دکھانے کی ضرورت تھی۔</v>
       </c>
       <c r="D320" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="321">
@@ -4893,7 +4893,7 @@
         <v>یورپی لوگ بوسنیا میں امن قائم کرنے والے ہیں۔</v>
       </c>
       <c r="D321" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="322">
@@ -4907,7 +4907,7 @@
         <v>گھوڑا ایک پالتو گھوڑا ہونا چاہیے۔</v>
       </c>
       <c r="D322" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="323">
@@ -4921,7 +4921,7 @@
         <v>یہ عمل ڈی وی ڈیز کو کاٹنے کے لیے استعمال کیا جا سکتا ہے۔</v>
       </c>
       <c r="D323" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="324">
@@ -4935,7 +4935,7 @@
         <v>معائنہ کار نے اس کی تصدیق کی لیکن مسائل سے آگاہ تھا۔</v>
       </c>
       <c r="D324" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="325">
@@ -4963,7 +4963,7 @@
         <v>یہ ایک استعمال شدہ کھلونا تھا۔</v>
       </c>
       <c r="D326" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="327">
@@ -4977,7 +4977,7 @@
         <v>بندوقیں مہنگی ہیں اور پولیس کو پیسے کی ضرورت ہے جو ان کی طرف منتقل کیے جائیں۔</v>
       </c>
       <c r="D327" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="328">
@@ -4991,7 +4991,7 @@
         <v>مايا کو اپنی اسکول سے نفرت تھی۔</v>
       </c>
       <c r="D328" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="329">
@@ -5005,7 +5005,7 @@
         <v>اس سیاق و سباق میں آخری بیان ایک طنزیہ تبصرہ ہے۔</v>
       </c>
       <c r="D329" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="330">
@@ -5019,7 +5019,7 @@
         <v>رینڈی صرف 11% مشروبات پیتا ہے جو وہ خریدتا ہے۔</v>
       </c>
       <c r="D330" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="331">
@@ -5033,7 +5033,7 @@
         <v>یقینی بنائیں کہ پہلے اپنے ہاتھ antibacterial صابن سے دھوئیں، اور انہیں اچھی طرح سے بہت ساری مٹی سے دھوئیں۔</v>
       </c>
       <c r="D331" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="332">
@@ -5047,7 +5047,7 @@
         <v>ہیلو گیٹ امریکہ میں تھائی لینڈ سے پہلے جاری ہوا۔</v>
       </c>
       <c r="D332" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="333">
@@ -5061,7 +5061,7 @@
         <v>اس کا دفتر کئی سالوں سے مختلف پرائیویسی کوڈز کا نگران رہا ہے۔</v>
       </c>
       <c r="D333" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="334">
@@ -5075,7 +5075,7 @@
         <v>سارہ نے بند گوبھی کا رس نہیں خریدا۔</v>
       </c>
       <c r="D334" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="335">
@@ -5089,7 +5089,7 @@
         <v>ڈائر اسٹریٹس کبھی بھی امریکہ میں مقبول ہونا نہیں چاہتے تھے۔</v>
       </c>
       <c r="D335" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="336">
@@ -5103,7 +5103,7 @@
         <v>صحت مند لوگ کبھی بیمار نہیں ہوتے۔</v>
       </c>
       <c r="D336" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="337">
@@ -5117,7 +5117,7 @@
         <v>ایتھن نے امریکہ کے پڑوسی کا دورہ کیا۔</v>
       </c>
       <c r="D337" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="338">
@@ -5131,7 +5131,7 @@
         <v>بجٹ کے اقدامات میں شامل ہیں قرضے جو ادا کیے جاتے ہیں۔</v>
       </c>
       <c r="D338" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="339">
@@ -5145,7 +5145,7 @@
         <v>ٹیم کو نئے ٹرے کی ضرورت ہے۔</v>
       </c>
       <c r="D339" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="340">
@@ -5159,7 +5159,7 @@
         <v>ٹم نے شادی سے پہلے بیچلر پارٹی کی وجہ سے اپنی منگیتر کو چھوڑ دیا۔</v>
       </c>
       <c r="D340" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="341">
@@ -5173,7 +5173,7 @@
         <v>بندوق کے قوانین اہم ہیں لیکن بچوں سے محبت نہیں کرنا۔</v>
       </c>
       <c r="D341" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="342">
@@ -5187,7 +5187,7 @@
         <v>پرائیویسی کمشنر نے نگرانی کے حق میں وکالت کی ہے۔</v>
       </c>
       <c r="D342" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="343">
@@ -5201,7 +5201,7 @@
         <v>اسٹیون نے ایک طویل وقت تک تیراکی کی ہے۔</v>
       </c>
       <c r="D343" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="344">
@@ -5215,7 +5215,7 @@
         <v>تسمانیائی قانون ساز کونسل ہوبارٹ سے منتقل ہونا چاہتی ہے۔</v>
       </c>
       <c r="D344" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="345">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -5663,7 +5663,7 @@
         <v>ایتھن نے اطالوی کھانا کھایا۔</v>
       </c>
       <c r="D376" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="377">
@@ -5677,7 +5677,7 @@
         <v>آپ کا ڈیٹا پلان آپ کے فون کیریئر کے ذریعہ طے کیا جاتا ہے۔</v>
       </c>
       <c r="D377" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="378">
@@ -5691,7 +5691,7 @@
         <v>گورنر نے کیلیب سے کہا کہ وہ گھر جاتے وقت سڑک کے قریب والے طرف پر رہے۔</v>
       </c>
       <c r="D378" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="379">
@@ -5705,7 +5705,7 @@
         <v>روفس وین رائٹ کا "میں نہیں جانتا یہ کیا ہے" اس کے دوسرے البم کے بعد لیکن 27 جولائی 2004 سے پہلے جاری کیا گیا۔</v>
       </c>
       <c r="D379" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="380">
@@ -5719,7 +5719,7 @@
         <v>1950 کی دہائی میں، امریکہ کی ایف بی آئی نے ان لوگوں کی ایک عوامی فہرست بنانا شروع کی جنہیں اس نے دس سب سے زیادہ مطلوب مجرموں کے طور پر دیکھا۔</v>
       </c>
       <c r="D380" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="381">
@@ -5733,7 +5733,7 @@
         <v>ایک خاص کردار میں اچھے باس بننے کے لیے دوسرا قدم یہ ہے کہ آپ کو کام کی بہترین تفہیم حاصل ہو اور یہ جاننا ضروری ہے کہ کامیاب ہونے کے لیے کیا درکار ہے۔</v>
       </c>
       <c r="D381" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="382">
@@ -5747,7 +5747,7 @@
         <v>ایک نامعلوم متن آپ کا نام ظاہر نہیں کرتا۔</v>
       </c>
       <c r="D382" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="383">
@@ -5761,7 +5761,7 @@
         <v>بیتھ، میین اور ساگاڈاہوک کاؤنٹی کی نمائندگی ڈیموکریٹک فلور لیڈر، میری اسمال نے کی۔</v>
       </c>
       <c r="D383" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="384">
@@ -5775,7 +5775,7 @@
         <v>کیٹ کی بیٹی غیر سماجی ہے۔</v>
       </c>
       <c r="D384" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="385">
@@ -5789,7 +5789,7 @@
         <v>پامونووا مشرقی صوبے میں واقع نہیں ہے۔</v>
       </c>
       <c r="D385" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="386">
@@ -5817,7 +5817,7 @@
         <v>سامی نے بیس بال کی مشق محنت سے کی۔</v>
       </c>
       <c r="D387" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="388">
@@ -5831,7 +5831,7 @@
         <v>اسٹیون کا بچپن کا شوق ایک پیشے میں تبدیل ہوگیا۔</v>
       </c>
       <c r="D388" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="389">
@@ -5845,7 +5845,7 @@
         <v>حکومت میں لوگ ایک دوسرے پر الزام لگا رہے ہیں اور نفرت کر رہے ہیں۔</v>
       </c>
       <c r="D389" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="390">
@@ -5859,7 +5859,7 @@
         <v>"جو لڑکی چاہتی ہے" نے بیلجیم میں سلور سرٹیفیکیشن حاصل کیا۔</v>
       </c>
       <c r="D390" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="391">
@@ -5873,7 +5873,7 @@
         <v>اینورکسیا نیوروزا کو غلطی سے خوراک کی پابندی کے طور پر سمجھا جاتا ہے۔</v>
       </c>
       <c r="D391" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="392">
@@ -5887,7 +5887,7 @@
         <v>ٹینا ٹرنر نے انڈیانا جونز کی فلم کے لیے ایک گانا بنایا۔</v>
       </c>
       <c r="D392" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="393">
@@ -5901,7 +5901,7 @@
         <v>وائٹ ایئرپ ایک انسان تھا۔</v>
       </c>
       <c r="D393" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="394">
@@ -5915,7 +5915,7 @@
         <v>ٹینا ٹرنر نے گولڈن آئی کے لیے ایک گانا بنایا۔</v>
       </c>
       <c r="D394" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="395">
@@ -5929,7 +5929,7 @@
         <v>ڈیمی لوواٹو اسنیکس کی وکیل ہیں۔</v>
       </c>
       <c r="D395" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="396">
@@ -5943,7 +5943,7 @@
         <v>ڈی جے خالد نے 11 ستمبر 2008 کے بعد اپنا نام تبدیل کیا۔</v>
       </c>
       <c r="D396" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="397">
@@ -5957,7 +5957,7 @@
         <v>باربرا بش نے بچوں کی خواندگی کے لیے باربرا بش فاؤنڈیشن کی بنیاد رکھی۔</v>
       </c>
       <c r="D397" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="398">
@@ -5971,7 +5971,7 @@
         <v>رینڈل فلیگ "دی اسٹینڈ" اور "ڈارک ٹاور" میں نمایاں کیا گیا ہے۔</v>
       </c>
       <c r="D398" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="399">
@@ -5985,7 +5985,7 @@
         <v>"وہ لڑکی کیا چاہتی ہے" نے امریکہ میں سونے کا سرٹیفکیٹ حاصل کیا۔</v>
       </c>
       <c r="D399" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="400">
@@ -5999,7 +5999,7 @@
         <v>میگن فاکس نے فیث فورڈ کے ساتھ کام کیا۔</v>
       </c>
       <c r="D400" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="401">
@@ -6013,7 +6013,7 @@
         <v>ڈارک نائٹ گوتھم سٹی میں واقع ہے۔</v>
       </c>
       <c r="D401" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="402">
@@ -6027,7 +6027,7 @@
         <v>فائٹ کلب میں بریڈ پٹ نے اداکاری کی ہے۔</v>
       </c>
       <c r="D402" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="403">
@@ -6041,7 +6041,7 @@
         <v>ہر کسی کو ایک بہترین دوست کی ضرورت ہوتی ہے۔</v>
       </c>
       <c r="D403" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="404">
@@ -6055,7 +6055,7 @@
         <v>ڈاکٹر ہو اکیلا سفر کرتا ہے۔</v>
       </c>
       <c r="D404" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="405">
@@ -6069,7 +6069,7 @@
         <v>ہیلی ہنٹ 5 فلموں میں تھیں جہاں ہیلی ہنٹ نے برگر کھایا۔</v>
       </c>
       <c r="D405" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="406">
@@ -6083,7 +6083,7 @@
         <v>جیف بیزوس فیس بک کے بانی ہیں۔</v>
       </c>
       <c r="D406" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="407">
@@ -6097,7 +6097,7 @@
         <v>ٹینا ٹرنر کا البم "بریک ایوری رول" سونے کا ہوگیا۔</v>
       </c>
       <c r="D407" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="408">
@@ -6111,7 +6111,7 @@
         <v>ڈوک ہولی ڈے نے کبھی اٹلانٹا میں پریکٹس قائم نہیں کی۔</v>
       </c>
       <c r="D408" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="409">
@@ -6125,7 +6125,7 @@
         <v>نفسیات ایک علمی شعبہ ہے۔</v>
       </c>
       <c r="D409" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="410">
@@ -6139,7 +6139,7 @@
         <v>نریندر مودی ایک بھارتی سیاستدان ہیں۔</v>
       </c>
       <c r="D410" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="411">
@@ -6153,7 +6153,7 @@
         <v>ڈاکٹر ہو کو متعدد اداکاروں نے ادا کیا ہے۔</v>
       </c>
       <c r="D411" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="412">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -5229,7 +5229,7 @@
         <v>وہ شمالی اتحاد کے معاہدے کی حمایت کرتے ہیں۔</v>
       </c>
       <c r="D345" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="346">
@@ -5243,7 +5243,7 @@
         <v>نئے پیدا ہونے والے کتے کے بچوں کو کھانا دینا بہت ساری چیزوں کی ضرورت ہوتی ہے۔</v>
       </c>
       <c r="D346" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="347">
@@ -5257,7 +5257,7 @@
         <v>پیراسیلنگ لو سی کے لیے ایک خواب کی تعبیر تھی۔</v>
       </c>
       <c r="D347" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="348">
@@ -5271,7 +5271,7 @@
         <v>انکل سام نے اپنے پہلے البم کا نام "انکل سیمی" رکھا۔</v>
       </c>
       <c r="D348" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="349">
@@ -5285,7 +5285,7 @@
         <v>مدعی جج کے تبصروں کو ریکارڈ پر ہونے پر اعتراض کرتا ہے۔</v>
       </c>
       <c r="D349" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="350">
@@ -5299,7 +5299,7 @@
         <v>ریبا نے ایک ڈاکو سے اپنی گھڑی کھو دی۔</v>
       </c>
       <c r="D350" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="351">
@@ -5313,7 +5313,7 @@
         <v>چولہے پر ایک فرائی پین رکھیں۔</v>
       </c>
       <c r="D351" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="352">
@@ -5327,7 +5327,7 @@
         <v>اس نے "ہینک اور خوشی کی تلاش"، "سیرنڈیپیٹی"، اور "کیا ہم رقص کریں؟" جیسی فلمیں ڈائریکٹ کی ہیں۔</v>
       </c>
       <c r="D352" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="353">
@@ -5341,7 +5341,7 @@
         <v>حل کولمبیائی منشیات مافیا کے خلاف ایک فعال لڑائی پر مبنی نہیں ہے۔</v>
       </c>
       <c r="D353" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="354">
@@ -5355,7 +5355,7 @@
         <v>ایک بہت بڑی کرسی کی ضرورت ہے تاکہ ایک تربوز کا اسموتھی بنانے کے لیے ڈرل کا استعمال کیا جا سکے۔</v>
       </c>
       <c r="D354" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="355">
@@ -5369,7 +5369,7 @@
         <v>جوش کو اپنے گھر کی یاد آتی ہے۔</v>
       </c>
       <c r="D355" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="356">
@@ -5383,7 +5383,7 @@
         <v>صدر نے جنگ شروع کی۔</v>
       </c>
       <c r="D356" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="357">
@@ -5397,7 +5397,7 @@
         <v>میرا شوہر اس بات میں درست تھا کہ میں گولف میں خراب ہوں۔</v>
       </c>
       <c r="D357" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="358">
@@ -5411,7 +5411,7 @@
         <v>الہانڈرو گھیرسی ایک میکسیکن پروڈیوسر ہیں۔</v>
       </c>
       <c r="D358" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="359">
@@ -5425,7 +5425,7 @@
         <v>وہ صبح نو بج کر تیس منٹ پر نکلے۔</v>
       </c>
       <c r="D359" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="360">
@@ -5439,7 +5439,7 @@
         <v>کینیڈا کی کنزرویٹو پارٹی ہاؤس آف کامنز میں سستی رہائش پر بات چیت کرنا چاہتی ہے۔</v>
       </c>
       <c r="D360" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="361">
@@ -5453,7 +5453,7 @@
         <v>سائانائیڈ کی ضرورت نہیں ہے۔</v>
       </c>
       <c r="D361" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="362">
@@ -5467,7 +5467,7 @@
         <v>وہ دریا کے اوپر اڑی۔</v>
       </c>
       <c r="D362" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="363">
@@ -5481,7 +5481,7 @@
         <v>راوی جاننا چاہتا ہے کہ آیا مسٹر لینڈری کو تمام معلومات فراہم کی گئی تھیں۔</v>
       </c>
       <c r="D363" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="364">
@@ -5495,7 +5495,7 @@
         <v>میں امید کرتا ہوں کہ انسانی نوع کی ترقی کی وزیر اور ان کے اہلکار واقعی میری باتوں پر توجہ دیں گے۔</v>
       </c>
       <c r="D364" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="365">
@@ -5509,7 +5509,7 @@
         <v>100 میٹر کی دوڑ کے لیے کمزور برداشت کی تربیت کی ضرورت ہوتی ہے۔</v>
       </c>
       <c r="D365" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="366">
@@ -5523,7 +5523,7 @@
         <v>ایلن میٹر نے جنگی فلمیں ڈائریکٹ کی ہیں۔</v>
       </c>
       <c r="D366" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="367">
@@ -5537,7 +5537,7 @@
         <v>اسلامی جہاد اپنے رہنما کی رہائی اور ایران پر عائد پابندیوں کے خاتمے کا خواہاں ہے۔</v>
       </c>
       <c r="D367" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="368">
@@ -5551,7 +5551,7 @@
         <v>انا لوگوں کے ساتھ بات چیت کرتی ہے۔</v>
       </c>
       <c r="D368" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="369">
@@ -5565,7 +5565,7 @@
         <v>درخت گر گیا۔</v>
       </c>
       <c r="D369" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="370">
@@ -5579,7 +5579,7 @@
         <v>مزدور قانون سازی ایوان میں آگے بڑھی ہے۔</v>
       </c>
       <c r="D370" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="371">
@@ -5593,7 +5593,7 @@
         <v>کیون ونسنٹ، 44، آرلنگٹن، ورجینیا کے رہائشی، نے کہا کہ اس کی بیوی الیو برانڈ کا ایسیٹامینوفین خریدتی ہے اور وہ اس مسئلے کے بارے میں مزید جاننا چاہتا تھا۔</v>
       </c>
       <c r="D371" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="372">
@@ -5607,7 +5607,7 @@
         <v>سرخ شرٹس دیہی اور غریب لوگوں کے حامی ہیں اور وزیر اعظم کی حمایت کرتے ہیں۔</v>
       </c>
       <c r="D372" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="373">
@@ -5621,7 +5621,7 @@
         <v>رینڈی نے کچھ ووڈکا خریدا۔</v>
       </c>
       <c r="D373" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="374">
@@ -5635,7 +5635,7 @@
         <v>شہریوں کو نئے صدر کی ضرورت نہیں تھی۔</v>
       </c>
       <c r="D374" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="375">
@@ -5649,7 +5649,7 @@
         <v>براون اسٹرو مان کو بروک لیسنر کے ساتھ ایک مسئلہ ہے۔</v>
       </c>
       <c r="D375" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="376">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -511,7 +511,7 @@
         <v>ایولینڈ اورنج کاؤنٹی کے ٹاؤن شپ سے ہے۔</v>
       </c>
       <c r="D8" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +525,7 @@
         <v>سینیٹر گھٹر صدر کے عہدے کے لیے انتخاب لڑنے جا رہے ہیں۔</v>
       </c>
       <c r="D9" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="10">
@@ -539,7 +539,7 @@
         <v>مشرق ٹیکساس کا مرد اور عورت مکمل ذہنی صحت میں ہیں۔</v>
       </c>
       <c r="D10" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="11">
@@ -553,7 +553,7 @@
         <v>یہ ملاقات 1 اکتوبر 1998 کو ہوئی تھی۔</v>
       </c>
       <c r="D11" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="12">
@@ -567,7 +567,7 @@
         <v>تاریخ کے ایک خاص وقت پر مخصوص پابندیوں کے نافذ ہونے کی عدم یقینیت کے بارے میں دھمکیاں دی گئیں۔ یہ پابندیاں کسی ادارے کو انتہائی پریشان کر دیں گی۔</v>
       </c>
       <c r="D12" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="13">
@@ -581,7 +581,7 @@
         <v>اگر پروگرام ریڈ ہیٹ انٹرپرائز کی تصدیق شدہ نہیں ہے تو یہ متعلقہ فرمی لینکس ایل ٹی ایس ریلیز پر چل سکتا ہے۔</v>
       </c>
       <c r="D13" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="14">
@@ -595,7 +595,7 @@
         <v>اگر آپ اس علاقے کا کبھی استعمال نہیں کرتے تو ہفتے میں چند بار استعمال کرنا کافی ہوگا۔</v>
       </c>
       <c r="D14" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         <v>یہ گھر 1940 کی دہائی میں مکمل ہوا تھا۔</v>
       </c>
       <c r="D15" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="16">
@@ -623,7 +623,7 @@
         <v>اس سیاق و سباق میں "وہ" مکمل طور پر استغاثہ کے ساتھ ہیں۔</v>
       </c>
       <c r="D16" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="17">
@@ -637,7 +637,7 @@
         <v>مضمون میں کہا گیا ہے کہ گاڑی میں موجود زیادہ تر پیٹرول استعمال کر لیں۔</v>
       </c>
       <c r="D17" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="18">
@@ -651,7 +651,7 @@
         <v>دو مرد بیس سال کی قید میں ہیں۔</v>
       </c>
       <c r="D18" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="19">
@@ -665,7 +665,7 @@
         <v>یہ جاننا مددگار ہے کہ آیا آپ کے حریف نے بہت زیادہ شراب پی لی ہے۔</v>
       </c>
       <c r="D19" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="20">
@@ -679,7 +679,7 @@
         <v>مائیکل جیکسن مر چکے ہیں۔</v>
       </c>
       <c r="D20" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="21">
@@ -693,7 +693,7 @@
         <v>ابتدائی تعلیم پر کوئی زور نہیں دیا گیا ہے۔</v>
       </c>
       <c r="D21" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="22">
@@ -707,7 +707,7 @@
         <v>نیشنل فوک پارک اسٹاپ پر اتریں اور وہاں سے مرکزی دروازے تک پیدل چلیں۔</v>
       </c>
       <c r="D22" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="23">
@@ -721,7 +721,7 @@
         <v>فائرنگ منگل کی صبح تک جاری رہی۔</v>
       </c>
       <c r="D23" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="24">
@@ -735,7 +735,7 @@
         <v>یہ اصلاح املا کے قواعد کو ہم آہنگ کرنے کے لیے تھی۔</v>
       </c>
       <c r="D24" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="25">
@@ -749,7 +749,7 @@
         <v>آپ کی نلی کی شکل یہ بتائے گی کہ اسے کس طرح نقصان پہنچا ہے۔</v>
       </c>
       <c r="D25" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="26">
@@ -763,7 +763,7 @@
         <v>لوگ سرد کمرے میں سونا پسند کرتے ہیں۔</v>
       </c>
       <c r="D26" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="27">
@@ -777,7 +777,7 @@
         <v>اگر آپ بدھ کے روز دوپہر 12 بجے اسپورٹس سینٹر دیکھا کرتے تھے تو ممکن ہے کہ آپ جانتے ہوں کہ کرس میک کینڈر کون ہیں۔</v>
       </c>
       <c r="D27" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="28">
@@ -791,7 +791,7 @@
         <v>اگر کسی کو الگ کیا جائے تو یہ انصاف ہے۔</v>
       </c>
       <c r="D28" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="29">
@@ -805,7 +805,7 @@
         <v>ایجنٹ فوج کا حصہ تھا۔</v>
       </c>
       <c r="D29" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         <v>کوئی بھی افریقی بنفشی پھول اگا سکتا ہے اگر اس میں ارادہ ہو۔</v>
       </c>
       <c r="D30" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="31">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -6167,7 +6167,7 @@
         <v>کیپلان اپنی بصیرت کو حقیقت میں دیکھنا چاہتا ہے۔</v>
       </c>
       <c r="D412" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="413">
@@ -6181,7 +6181,7 @@
         <v>اسے ایک رپورٹ دی گئی جس میں وہ چیز سالانہ دکھائی گئی جو وہ چاہتا تھا۔</v>
       </c>
       <c r="D413" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="414">
@@ -6195,7 +6195,7 @@
         <v>یہ کوشر قوانین نے محفوظ جانوروں کو پھلنے پھولنے کی اجازت دی ہے۔</v>
       </c>
       <c r="D414" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="415">
@@ -6209,7 +6209,7 @@
         <v>ابے لوئل اسٹار کے سوالات کا فائدہ اٹھانے کی کوشش کرنے کا ارادہ رکھتا ہے۔</v>
       </c>
       <c r="D415" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="416">
@@ -6223,7 +6223,7 @@
         <v>پریس کو دوبارہ ترتیب دینے کی ضرورت ہے تاکہ کسی بھی لیکیج سے چھٹکارا حاصل کیا جا سکے۔</v>
       </c>
       <c r="D416" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="417">
@@ -6237,7 +6237,7 @@
         <v>کلیمن چاہتا ہے کہ دوسرے اسے سمجھدار سمجھیں۔</v>
       </c>
       <c r="D417" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="418">
@@ -6251,7 +6251,7 @@
         <v>دنیا اچھی رہنمائی کے ساتھ میکرو اکنامکس کے ساتھ چلے گی۔</v>
       </c>
       <c r="D418" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="419">
@@ -6265,7 +6265,7 @@
         <v>جوائس وہ ٹکڑا نہیں ڈھونڈ پا رہی جس کی وہ تلاش کر رہی ہے۔</v>
       </c>
       <c r="D419" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="420">
@@ -6279,7 +6279,7 @@
         <v>مصنف نے جان بوجھ کر سوال کو مبہم بنایا۔</v>
       </c>
       <c r="D420" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="421">
@@ -6293,7 +6293,7 @@
         <v>عورت کی کوئی آخری خواہش نہیں ہے۔</v>
       </c>
       <c r="D421" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="422">
@@ -6307,7 +6307,7 @@
         <v>کچھ بلند توقعات کے باوجود، برانڈ ایک مستحکم زوال کی طرف بڑھ رہا ہے۔</v>
       </c>
       <c r="D422" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="423">
@@ -6321,7 +6321,7 @@
         <v>تمام بیسٹ ہاؤنڈز میں اچھی حس ہوتی ہے۔</v>
       </c>
       <c r="D423" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="424">
@@ -6335,7 +6335,7 @@
         <v>مجھے تمام مزدا گاڑیاں پسند ہیں۔</v>
       </c>
       <c r="D424" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="425">
@@ -6349,7 +6349,7 @@
         <v>انہیں سنا جانا چاہیے۔</v>
       </c>
       <c r="D425" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="426">
@@ -6363,7 +6363,7 @@
         <v>انہیں اس آدمی کا نام جاننے کی ضرورت تھی۔</v>
       </c>
       <c r="D426" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="427">
@@ -6377,7 +6377,7 @@
         <v>گرین سپین کے بیان کی دوبارہ وضاحت کی ضرورت تھی۔</v>
       </c>
       <c r="D427" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="428">
@@ -6391,7 +6391,7 @@
         <v>مصنف چاہتا تھا کہ ریگن کو تنقید کا سامنا کرنا پڑے۔</v>
       </c>
       <c r="D428" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="429">
@@ -6405,7 +6405,7 @@
         <v>عورت اکیلی ہے۔</v>
       </c>
       <c r="D429" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="430">
@@ -6419,7 +6419,7 @@
         <v>کیٹز بے حد چاہتا ہے کہ اسے واشنگٹن پوسٹ میں شائع کیا جائے۔</v>
       </c>
       <c r="D430" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="431">
@@ -6433,7 +6433,7 @@
         <v>مائیکروسافٹ اپنے مارکیٹ میں ایک طاقتور کھلاڑی ہے، جو مسائل کو غیر مؤثر کرنے کی صلاحیت رکھتا ہے۔</v>
       </c>
       <c r="D431" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="432">
@@ -6447,7 +6447,7 @@
         <v>اسپرنگر مقبول نہیں ہے۔</v>
       </c>
       <c r="D432" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="433">
@@ -6461,7 +6461,7 @@
         <v>ہر کسی کو اس کی محبت کی زندگی کے بارے میں اپنی اپنی باتوں کا خیال رکھنا چاہیے۔</v>
       </c>
       <c r="D433" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="434">
@@ -6475,7 +6475,7 @@
         <v>انگلش نے ایک طویل ہائی وے کی تعمیر کی۔</v>
       </c>
       <c r="D434" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="435">
@@ -6489,7 +6489,7 @@
         <v>اب بھی ایسے لوگ ہیں جو تحائف دینا چاہتے ہیں۔</v>
       </c>
       <c r="D435" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="436">
@@ -6503,7 +6503,7 @@
         <v>سرباز اس کی مدد کرنا چاہتے تھے۔</v>
       </c>
       <c r="D436" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="437">
@@ -6517,7 +6517,7 @@
         <v>میک کین چاہتا ہے کہ سب کے لیے ٹیکس بڑھائے جائیں۔</v>
       </c>
       <c r="D437" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="438">
@@ -6531,7 +6531,7 @@
         <v>کردار اور اس کے بھائی جاپان میں بڑے ہوتے ہیں۔</v>
       </c>
       <c r="D438" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="439">
@@ -6545,7 +6545,7 @@
         <v>پیرول پر رہنے والا ہمیشہ قانون کی پیروی کرتا رہا ہے۔</v>
       </c>
       <c r="D439" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="440">
@@ -6559,7 +6559,7 @@
         <v>جیسی وینٹورا نہیں چاہتے کہ پیٹ نامزدگی جیتے۔</v>
       </c>
       <c r="D440" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="441">
@@ -6573,7 +6573,7 @@
         <v>نئی ٹیکنالوجی اہم کہانیاں ایک اخبار میں شامل کرتی ہے۔</v>
       </c>
       <c r="D441" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="442">
@@ -6587,7 +6587,7 @@
         <v>یہ ایک چھوٹی رقم ہے، جو ضرورت کے مقابلے میں ہے۔</v>
       </c>
       <c r="D442" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="443">
@@ -6601,7 +6601,7 @@
         <v>کِرک بَزرز کی تنظیم کو اس سے پیسے کی ضرورت ہے۔</v>
       </c>
       <c r="D443" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="444">
@@ -6615,7 +6615,7 @@
         <v>ریپبلکن اکثر اپنے غریب حلقہ انتخاب کو بجٹ خسارے کے وقت واپس دینے کی کوشش کرتے ہیں۔</v>
       </c>
       <c r="D444" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="445">
@@ -6629,7 +6629,7 @@
         <v>پوائنٹ کاسٹ اپنی پہلی سافٹ ویئر پروڈکٹ بنانے کی کوشش کر رہا ہے۔</v>
       </c>
       <c r="D445" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="446">
@@ -6643,7 +6643,7 @@
         <v>بیٹل ہائم نے رہنما ہونے کی اہمیت پر توجہ دی۔</v>
       </c>
       <c r="D446" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="447">
@@ -6657,7 +6657,7 @@
         <v>نقاد جو آج ناول کو بچانے کے لیے بے چین ہیں، 40 سال پہلے اسے مارنا چاہتے تھے۔</v>
       </c>
       <c r="D447" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="448">
@@ -6671,7 +6671,7 @@
         <v>پولک کا کیریئر مختصر تھا۔</v>
       </c>
       <c r="D448" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="449">
@@ -6685,7 +6685,7 @@
         <v>عورت مرد کی رفتار کی ضرورت کو پورا کرتی ہے۔</v>
       </c>
       <c r="D449" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="450">
@@ -6699,7 +6699,7 @@
         <v>سماجی ادائیگی کے نظاموں میں کٹوتی قومی رہنماؤں کے لیے گرمی پیدا کرتی ہے۔</v>
       </c>
       <c r="D450" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="451">
@@ -6713,7 +6713,7 @@
         <v>یورپی حکومتوں نے کال بیک خدمات پر بڑے ٹیکس عائد کیے ہیں۔</v>
       </c>
       <c r="D451" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="452">
@@ -6727,7 +6727,7 @@
         <v>وفاقی حکومت جانتی ہے کہ آفت کے لئے مالی امداد کی بڑی طلب ہے۔</v>
       </c>
       <c r="D452" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="453">
@@ -6741,7 +6741,7 @@
         <v>میں اس بات سے مکمل طور پر خوش ہوں کہ یہ کیسے چل رہا ہے۔</v>
       </c>
       <c r="D453" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="454">
@@ -6755,7 +6755,7 @@
         <v>کچھ لوگ خاص پراسیکیوٹرز سے دستبردار ہونا چاہتے ہیں۔</v>
       </c>
       <c r="D454" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="455">
@@ -6769,7 +6769,7 @@
         <v>میں گیبریل کی آگ تلاش کرنا چاہتا ہوں؛ یہ میری پسندیدہ ہے۔</v>
       </c>
       <c r="D455" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="456">
@@ -6783,7 +6783,7 @@
         <v>LSC کو تجویز کردہ رہنمائی کی مؤثریت کے بارے میں شکوک تھے۔</v>
       </c>
       <c r="D456" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="457">
@@ -6797,7 +6797,7 @@
         <v>ٹومی واقعی جاننا چاہتا تھا۔</v>
       </c>
       <c r="D457" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="458">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -6811,7 +6811,7 @@
         <v>یہ جائزہ مداخلت کی وجہ کو غلط ثابت کرنے کی کوشش کرے گا۔</v>
       </c>
       <c r="D458" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="459">
@@ -6825,7 +6825,7 @@
         <v>یہ جاننا ناممکن ہے کہ آیا قانون سازی مؤثر ہے۔</v>
       </c>
       <c r="D459" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="460">
@@ -6839,7 +6839,7 @@
         <v>ڈبوں میں موجود چیزوں کو دیکھ کر اس کا الٹی کرنے کا دل چاہنے لگا۔</v>
       </c>
       <c r="D460" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="461">
@@ -6853,7 +6853,7 @@
         <v>وہ نروس تھی حالانکہ وہ نہیں چاہتی تھی کہ وہ ہو۔</v>
       </c>
       <c r="D461" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="462">
@@ -6867,7 +6867,7 @@
         <v>میرا بیٹا واقعی ایک کتا رکھنا چاہتا ہے۔</v>
       </c>
       <c r="D462" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="463">
@@ -6881,7 +6881,7 @@
         <v>متعدد مقامات کے ساتھ تربیت اور نگرانی پر مطالبات میں اضافہ ہوتا ہے۔</v>
       </c>
       <c r="D463" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="464">
@@ -6895,7 +6895,7 @@
         <v>اگرچہ اسے اپنے ماحول سے عمومی طور پر محبت تھی، لیکن وہ جلد ہی چھوڑنا چاہتا تھا تاکہ خزاں کی طوفانی بارشوں سے بچ سکے۔</v>
       </c>
       <c r="D464" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="465">
@@ -6909,7 +6909,7 @@
         <v>اسپوک نے اپنی بیوی کے ساتھ دھوکہ دینے کی کوشش کی۔</v>
       </c>
       <c r="D465" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="466">
@@ -6923,7 +6923,7 @@
         <v>قیمت کو محدود کرنے کی ضرورت تھی۔</v>
       </c>
       <c r="D466" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="467">
@@ -6937,7 +6937,7 @@
         <v>میرا شوہر خوش ہے کہ مجھے پھولوں کی دیکھ بھال کرنے دیتا ہے، جبکہ وہ اپنے پسندیدہ طریقے سے لان کی دیکھ بھال کرتا ہے۔</v>
       </c>
       <c r="D467" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="468">
@@ -6951,7 +6951,7 @@
         <v>انہوں نے واقعی ہماری خاندانی ملاقات کا بیڑہ غرق کر دیا ہے۔</v>
       </c>
       <c r="D468" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="469">
@@ -6965,7 +6965,7 @@
         <v>میں ایک ڈیک کے ساتھ گھر خریدنا چاہتا تھا، لیکن میں نے بغیر ڈیک کے ایک لینے کا فیصلہ کیا۔</v>
       </c>
       <c r="D469" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="470">
@@ -6979,7 +6979,7 @@
         <v>پارٹی چاہتی ہے کہ وہ جلد از جلد چلا جائے۔</v>
       </c>
       <c r="D470" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="471">
@@ -6993,7 +6993,7 @@
         <v>میں نے فیصلہ کیا کہ مجھے کھانے کی ضرورت نہیں ہے۔</v>
       </c>
       <c r="D471" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="472">
@@ -7007,7 +7007,7 @@
         <v>ورنہ جاننا چاہتی ہے کہ کیا کل جا رہا ہے۔</v>
       </c>
       <c r="D472" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="473">
@@ -7021,7 +7021,7 @@
         <v>کسی بھی صورت میں کلنٹن کے لیے جھوٹ بولنے کے لیے کوئی ایجنٹ تیار نہیں تھا۔</v>
       </c>
       <c r="D473" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="474">
@@ -7035,7 +7035,7 @@
         <v>ہم لیونسکی کو وائر کرنا چاہتے تھے۔</v>
       </c>
       <c r="D474" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="475">
@@ -7049,7 +7049,7 @@
         <v>فعالی اور وکیل کی ضروریات ہمیشہ ہم آہنگ ہوتی ہیں۔</v>
       </c>
       <c r="D475" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="476">
@@ -7063,7 +7063,7 @@
         <v>ڈرو نہیں چاہتا تھا کہ شینن کو نیچے گرا دے۔</v>
       </c>
       <c r="D476" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="477">
@@ -7077,7 +7077,7 @@
         <v>وہ واقعی خاندان کی ملاقات کے عمل کو آسان بنا دیتے ہیں۔</v>
       </c>
       <c r="D477" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="478">
@@ -7091,7 +7091,7 @@
         <v>میں امید کرتا ہوں کہ میں اسے کبھی نہ کبھی دیکھوں گا۔</v>
       </c>
       <c r="D478" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="479">
@@ -7105,7 +7105,7 @@
         <v>اس دوران، بش خاندان مجھ سے کچھ بھی تعلق نہیں رکھنا چاہتا تھا۔</v>
       </c>
       <c r="D479" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="480">
@@ -7119,7 +7119,7 @@
         <v>ہمیں کچھ خیالات یاد رکھنا ہوں گے۔</v>
       </c>
       <c r="D480" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="481">
@@ -7133,7 +7133,7 @@
         <v>فلکیات دان اس سوال پر حیران تھا کہ لوگ کوئلہ اور تیل کیوں چاہتے ہیں حالانکہ وہ خلا میں جا چکے ہیں اور اس الجھن کی وجوہات پوچھ رہے تھے۔</v>
       </c>
       <c r="D481" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="482">
@@ -7147,7 +7147,7 @@
         <v>GAO اور IGs کے درمیان مضبوط تعلقات ہونا ضروری ہیں۔</v>
       </c>
       <c r="D482" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="483">
@@ -7161,7 +7161,7 @@
         <v>آپ کا شکریہ کہ آپ نے مجھے یاد دلانے میں مستقل مزاجی دکھائی جب بھی میں جذباتی ہونے کی کوشش کرتا ہوں۔</v>
       </c>
       <c r="D483" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="484">
@@ -7175,7 +7175,7 @@
         <v>ہم بچے چاہتے ہیں۔</v>
       </c>
       <c r="D484" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="485">
@@ -7189,7 +7189,7 @@
         <v>ہم نے HRC لوگو کے ذریعے تھوڑی امید پیدا کرنے کی خواہش کی۔</v>
       </c>
       <c r="D485" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="486">
@@ -7203,7 +7203,7 @@
         <v>میں نے اگلی بہار میں اپنی ڈرائیو وے کو مکمل طور پر پختہ کر دیا۔</v>
       </c>
       <c r="D486" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="487">
@@ -7217,7 +7217,7 @@
         <v>جیکسن کو مدد کی ضرورت ہے۔</v>
       </c>
       <c r="D487" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="488">
@@ -7231,7 +7231,7 @@
         <v>دوسرا مرحلہ 17ویں صدی کے آخر میں منصوبہ بندی کیا گیا تھا۔</v>
       </c>
       <c r="D488" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="489">
@@ -7245,7 +7245,7 @@
         <v>مجھے جانا تھا۔</v>
       </c>
       <c r="D489" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="490">
@@ -7259,7 +7259,7 @@
         <v>یہ مضمون میں نے ایک میگزین میں پڑھا۔</v>
       </c>
       <c r="D490" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="491">
@@ -7273,7 +7273,7 @@
         <v>گلڈر کو تکنیکی تحریر لکھنے کے لیے کسی بہانے کی ضرورت نہیں ہے۔</v>
       </c>
       <c r="D491" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="492">
@@ -7287,7 +7287,7 @@
         <v>اچھے رہنما ایک تنظیم کو تبدیلی کے خلاف مزاحمت پر قابو پانے میں مدد کر سکتے ہیں۔</v>
       </c>
       <c r="D492" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="493">
@@ -7301,7 +7301,7 @@
         <v>اسے مسلسل winding کی ضرورت ہوتی ہے اور یہ پانچ منٹ کے اندر درست ہے۔</v>
       </c>
       <c r="D493" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="494">
@@ -7315,7 +7315,7 @@
         <v>انہوں نے باخبر رہنے کی طاقت کو جانا۔</v>
       </c>
       <c r="D494" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="495">
@@ -7329,7 +7329,7 @@
         <v>اس کا دفتر کہاں ہے یہ تلاش کرنا مشکل تھا۔</v>
       </c>
       <c r="D495" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="496">
@@ -7343,7 +7343,7 @@
         <v>میں سوچتا ہوں کہ میں اس جیسا بننا چاہتا ہوں۔</v>
       </c>
       <c r="D496" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="497">
@@ -7357,7 +7357,7 @@
         <v>اسے وقت کی ضرورت ہے۔</v>
       </c>
       <c r="D497" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="498">
@@ -7371,7 +7371,7 @@
         <v>رہائشی چاہتے تھے کہ وہ اپنا میل صبح 8:00 بجے حاصل کریں۔</v>
       </c>
       <c r="D498" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="499">
@@ -7385,7 +7385,7 @@
         <v>کیونکہ وہ ہندو تھے، نہرو کی کانگریس پارٹی کی قیادت سوشلسٹوں کے ہاتھ میں تھی۔</v>
       </c>
       <c r="D499" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="500">
@@ -7399,7 +7399,7 @@
         <v>سنتھیا کو گھاس سے الرجی تھی، اور وہ اس سے چھونے کو بھی تیار نہیں تھی۔</v>
       </c>
       <c r="D500" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="501">
@@ -7413,7 +7413,7 @@
         <v>بمباری کرنے والے ممالک آپ کی منظوری کی درجہ بندی کو متاثر کرتی ہے۔</v>
       </c>
       <c r="D501" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="502">
@@ -7427,7 +7427,7 @@
         <v>فریڈلینڈ-ہوم نے اس بات سے خبردار کیا کہ صحیح لگنے کی کوشش میں زیادہ محنت نہ کریں۔</v>
       </c>
       <c r="D502" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="503">
@@ -7441,7 +7441,7 @@
         <v>سویت یونین میں، بہت ساری مختلف ثقافتیں ایک ملک میں کام کرنے کی کوشش کر رہی ہیں۔</v>
       </c>
       <c r="D503" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="504">
@@ -7455,7 +7455,7 @@
         <v>بدقسمتی سے، میں گھر سے کام کرتے وقت جو چاہوں پہننے کے قابل نہیں ہوں۔</v>
       </c>
       <c r="D504" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="505">
@@ -7469,7 +7469,7 @@
         <v>میں چاہتا ہوں کہ آپ اپنی مرضی کے مطابق انتخاب کرنے میں آزاد ہوں۔</v>
       </c>
       <c r="D505" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="506">
@@ -7483,7 +7483,7 @@
         <v>آپ کو بڑے پتھریلے سڑکوں کا خیال رکھنا ہوگا۔</v>
       </c>
       <c r="D506" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="507">
@@ -7497,7 +7497,7 @@
         <v>میں جانتا ہوں کہ پاناما منشیات کو بہت سنجیدگی سے لیتا ہے۔</v>
       </c>
       <c r="D507" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="508">
@@ -7511,7 +7511,7 @@
         <v>شامل کردہ کوئز طبی مسائل کی تشخیص کے لیے استعمال کیا جا سکتا ہے۔</v>
       </c>
       <c r="D508" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="509">
@@ -7525,7 +7525,7 @@
         <v>جوش و خروش میں شامل ہونا چاہتا ہوں</v>
       </c>
       <c r="D509" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="510">
@@ -7539,7 +7539,7 @@
         <v>چیئرمین مشن کی طاقت کو برقرار رکھنا چاہتے ہیں۔</v>
       </c>
       <c r="D510" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="511">
@@ -7553,7 +7553,7 @@
         <v>برمن ایک روحانی سفر پر سمندر پار کرتا ہے۔</v>
       </c>
       <c r="D511" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="512">
@@ -7567,7 +7567,7 @@
         <v>میں اسے کہنا چاہتا ہوں کہ وہ ایسا نہ کہے۔</v>
       </c>
       <c r="D512" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="513">
@@ -7581,7 +7581,7 @@
         <v>میں ایملی کو اپنی مرضی کے مطابق بننے پر مجبور کرنے جا رہا ہوں۔</v>
       </c>
       <c r="D513" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="514">
@@ -7595,7 +7595,7 @@
         <v>70 کی دہائی میں پرو-چوئسز ابھرتی ہوئی نسوانی تحریک کے ساتھ وابستہ ہونا نہیں چاہتے تھے۔</v>
       </c>
       <c r="D514" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="515">
@@ -7609,7 +7609,7 @@
         <v>یہ واضح ہے کہ اسے کامیاب ہونے کے لیے کسی طریقے کا استعمال کرنے کی ضرورت نہیں ہے۔</v>
       </c>
       <c r="D515" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="516">
@@ -7623,7 +7623,7 @@
         <v>آپ کو تیسرے درجے کے قوسوں کو اچھی طرح دیکھنے کے لیے دوربین کی ضرورت ہے۔</v>
       </c>
       <c r="D516" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="517">
@@ -7637,7 +7637,7 @@
         <v>کیا آپ واقعی چاہتے ہیں کہ اس نے وہ جرم کیا؟</v>
       </c>
       <c r="D517" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="518">
@@ -7651,7 +7651,7 @@
         <v>"میں ان لوگوں کو کھانا بیچنا نہیں چاہتا جو اس کی حقیقی، خوشگوار نوعیت کی قدر کرنے کی صلاحیت نہیں رکھتے،" اس نے جواب دیا۔</v>
       </c>
       <c r="D518" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="519">
@@ -7665,7 +7665,7 @@
         <v>ٹوکیو کی تعمیر نو کی منصوبہ بندی ناقص تھی۔</v>
       </c>
       <c r="D519" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="520">
@@ -7679,7 +7679,7 @@
         <v>انہوں نے چاہا کہ میں ان کے داخلی راستے کے قریب گلاب لگاؤں۔</v>
       </c>
       <c r="D520" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="521">
@@ -7693,7 +7693,7 @@
         <v>پہلا ویب سائٹ کا فنکشن آپ کو ہوم پیج پر ری ڈائریکٹ کرتا ہے۔</v>
       </c>
       <c r="D521" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="522">
@@ -7707,7 +7707,7 @@
         <v>ریئر سن کا خیال ہے کہ ماحولیاتی تحفظ کے لیے سخت قوانین کی ضرورت ہے۔</v>
       </c>
       <c r="D522" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="523">
@@ -7721,7 +7721,7 @@
         <v>وہ چاہتا تھا کہ غربت میں مبتلا نوجوان ایسے اقدامات استعمال کریں جو انہیں بچوں کی پیدائش سے روک سکیں۔</v>
       </c>
       <c r="D523" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="524">
@@ -7735,7 +7735,7 @@
         <v>میں بولیوں کے درمیان ہوں کیونکہ میں چاہتا ہوں کہ میرا گھر رنگا جائے۔</v>
       </c>
       <c r="D524" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="525">
@@ -7749,7 +7749,7 @@
         <v>انہیں اضافی آمدنی کی ضرورت تھی۔</v>
       </c>
       <c r="D525" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="526">
@@ -7763,7 +7763,7 @@
         <v>میں وہی کرتا ہوں جو میں چاہتا ہوں۔</v>
       </c>
       <c r="D526" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="527">
@@ -7777,7 +7777,7 @@
         <v>مجھے معلوم ہے کہ آپ کا نام انتونیو ہے، دوبارہ کہنے کی ضرورت نہیں۔</v>
       </c>
       <c r="D527" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="528">
@@ -7791,7 +7791,7 @@
         <v>ڈونوان اولسن کو پچھلے دسمبر میں کاؤنٹی کے سپروائزرز کے بورڈ کا صدر مقرر کیا گیا تھا۔</v>
       </c>
       <c r="D528" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="529">
@@ -7805,7 +7805,7 @@
         <v>میں اصل مسٹر براؤن کو دیکھنا چاہتا ہوں۔</v>
       </c>
       <c r="D529" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="530">
@@ -7819,7 +7819,7 @@
         <v>درجات حرارت کم ہوں گے۔</v>
       </c>
       <c r="D530" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="531">
@@ -7847,7 +7847,7 @@
         <v>ہمیں گھر کے متعدد کمروں کی دوبارہ سجاوٹ کرنے کی ضرورت تھی۔</v>
       </c>
       <c r="D532" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="533">
@@ -7861,7 +7861,7 @@
         <v>میرے پاس پی سیز کے ساتھ زیادہ تجربہ ہے اس لیے میں نے زیادہ بوجھ اٹھایا۔</v>
       </c>
       <c r="D533" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="534">
@@ -7875,7 +7875,7 @@
         <v>شوہر نے اسے اورشے پارک کرنے کی چابیاں دیں۔</v>
       </c>
       <c r="D534" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="535">
@@ -7889,7 +7889,7 @@
         <v>میں ان کاموں کو کلاس کے بعد تک ملتوی کر سکتا ہوں۔</v>
       </c>
       <c r="D535" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="536">
@@ -7903,7 +7903,7 @@
         <v>شمالی اور جنوبی تجارتی علاقے نہیں بنائے جائیں گے۔</v>
       </c>
       <c r="D536" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="537">
@@ -7917,7 +7917,7 @@
         <v>میکسیم ہوٹل کی تجدید کی ضرورت ہے۔</v>
       </c>
       <c r="D537" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="538">
@@ -7931,7 +7931,7 @@
         <v>اوپیک معیشت کے بارے میں فکر مند ہے۔</v>
       </c>
       <c r="D538" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="539">
@@ -7945,7 +7945,7 @@
         <v>سینیٹ اس بل پر کبھی بھی کارروائی نہیں کرے گا۔</v>
       </c>
       <c r="D539" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="540">
@@ -7959,7 +7959,7 @@
         <v>انتظامیہ کا مقصد نئے مصنوعات اور خدمات تخلیق کرنا ہے جو صارفین کی ضروریات کو پورا کریں۔</v>
       </c>
       <c r="D540" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="541">
@@ -7973,7 +7973,7 @@
         <v>وہ دہشت گردی کے خلاف جنگ کی اہمیت کے حق میں دلائل دینا چاہتے ہیں۔</v>
       </c>
       <c r="D541" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="542">
@@ -7987,7 +7987,7 @@
         <v>میں تو ایک مہمان خصوصی بھی نہیں چاہتی۔</v>
       </c>
       <c r="D542" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="543">
@@ -8001,7 +8001,7 @@
         <v>اس جنگ کے اقتصادی نتائج بہت بڑے ہیں۔</v>
       </c>
       <c r="D543" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="544">
@@ -8015,7 +8015,7 @@
         <v>اس نے امریکہ جانے کی خواہش نہیں کی، لیکن وہ اپنے ملک میں رہنے سے ڈرتی تھی۔</v>
       </c>
       <c r="D544" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="545">
@@ -8029,7 +8029,7 @@
         <v>آپ کوشش کرتے ہیں کہ آپ کو کیا کرنا ہے۔</v>
       </c>
       <c r="D545" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="546">
@@ -8043,7 +8043,7 @@
         <v>آزادی کی قیمت وہ آزادی ہے جو آپ کو اپنی مرضی کے مطابق کرنے کی اجازت دیتی ہے۔</v>
       </c>
       <c r="D546" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="547">
@@ -8057,7 +8057,7 @@
         <v>آپ جو چاہیں کر سکتے ہیں۔</v>
       </c>
       <c r="D547" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="548">
@@ -8071,7 +8071,7 @@
         <v>وہ معلومات حاصل کرنا چاہتا تھا۔</v>
       </c>
       <c r="D548" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="549">
@@ -8085,7 +8085,7 @@
         <v>یہ ایک اچھا خیال ہے کہ ہم اسکول بورڈ کی مدد حاصل کریں۔</v>
       </c>
       <c r="D549" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="550">
@@ -8099,7 +8099,7 @@
         <v>بات چیت رپورٹر کی دلچسپی کے موضوع کے بارے میں تھی۔</v>
       </c>
       <c r="D550" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="551">
@@ -8113,7 +8113,7 @@
         <v>ناول ایک ایسی عورت کے بارے میں ہے جسے اپنے ہی گھر میں نہیں چاہا جاتا۔</v>
       </c>
       <c r="D551" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="552">
@@ -8127,7 +8127,7 @@
         <v>اسکول ایک نیا آڈیٹوریم بنا رہا ہے۔</v>
       </c>
       <c r="D552" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="553">
@@ -8141,7 +8141,7 @@
         <v>متاثرہ شخص جرم کی رپورٹ نہیں کرنا چاہتا۔</v>
       </c>
       <c r="D553" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="554">
@@ -8155,7 +8155,7 @@
         <v>حکومت صحت کی دیکھ بھال کے لیے ایک نظام بنانا چاہتی ہے۔</v>
       </c>
       <c r="D554" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="555">
@@ -8169,7 +8169,7 @@
         <v>کیا ہمیں معلوم ہے کہ اپنے بچوں کو دوائیں کیسے دینی ہیں؟</v>
       </c>
       <c r="D555" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="556">
@@ -8183,7 +8183,7 @@
         <v>ان کے پاس کچھ بھی کرنے کا موقع تھا جو وہ چاہتے تھے۔</v>
       </c>
       <c r="D556" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="557">
@@ -8197,7 +8197,7 @@
         <v>وکلاء کے پاس غریبوں کی مدد کرنے کا ایک بڑا موقع ہے۔</v>
       </c>
       <c r="D557" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="558">
@@ -8211,7 +8211,7 @@
         <v>فیڈرل انرجی پالیسی ایکٹ 1992 کو 2005 میں منسوخ کر دیا گیا۔</v>
       </c>
       <c r="D558" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="559">
@@ -8225,7 +8225,7 @@
         <v>آپ یہاں ہیں۔</v>
       </c>
       <c r="D559" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="560">
@@ -8239,7 +8239,7 @@
         <v>ریٹیل خدمات کے لیے معاہدوں کی ضرورت ہوتی ہے۔</v>
       </c>
       <c r="D560" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="561">
@@ -8253,7 +8253,7 @@
         <v>نولٹے نے کہا کہ وہ کبھی وکیل بننا نہیں چاہتا تھا۔</v>
       </c>
       <c r="D561" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="562">
@@ -8267,7 +8267,7 @@
         <v>ریاست فروخت کے لیے ہے۔</v>
       </c>
       <c r="D562" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="563">
@@ -8281,7 +8281,7 @@
         <v>سائنسدان جاننا چاہتے ہیں کہ پالیسی ساز کیا کر رہے ہیں۔</v>
       </c>
       <c r="D563" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="564">
@@ -8295,7 +8295,7 @@
         <v>مفاد کے حامل افراد منصوبہ بندی کے عمل میں شامل ہو سکتے ہیں۔</v>
       </c>
       <c r="D564" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="565">
@@ -8309,7 +8309,7 @@
         <v>اس کی مزاج میں تبدیلی اس کے دوستوں کی وجہ سے تھی۔</v>
       </c>
       <c r="D565" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="566">
@@ -8323,7 +8323,7 @@
         <v>سیاسی جماعتوں کے درمیان ایک ہی پےر صحت کی دیکھ بھال کے نظام کی ضرورت پر کافی اختلاف رائے موجود ہے۔</v>
       </c>
       <c r="D566" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="567">
@@ -8337,7 +8337,7 @@
         <v>آپ کے پاس ایک حقیقی مسئلہ ہے۔</v>
       </c>
       <c r="D567" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="568">
@@ -8351,7 +8351,7 @@
         <v>ایک پہیہ کھیلیں جس پر 0 اور 00 ہوں۔</v>
       </c>
       <c r="D568" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="569">
@@ -8365,7 +8365,7 @@
         <v>میں آپ کو یہ نہیں بتا سکتا کہ میں نے کیا کیا۔</v>
       </c>
       <c r="D569" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="570">
@@ -8379,7 +8379,7 @@
         <v>عورت نہیں جانتی کہ وہ کیا چاہتی ہے۔</v>
       </c>
       <c r="D570" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="571">
@@ -8393,7 +8393,7 @@
         <v>وہ ہمیشہ صحیح ہونا چاہتا ہے۔</v>
       </c>
       <c r="D571" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="572">
@@ -8407,7 +8407,7 @@
         <v>نئے پروگرام کی ضرورت ہے تاکہ مسئلے کو حل کیا جا سکے۔</v>
       </c>
       <c r="D572" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="573">
@@ -8421,7 +8421,7 @@
         <v>کیا آپ رہنا چاہتے ہیں؟</v>
       </c>
       <c r="D573" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="574">
@@ -8435,7 +8435,7 @@
         <v>قانون کو مؤثر بنانے کے لیے پولیس کی طاقت کی ضرورت ہے۔</v>
       </c>
       <c r="D574" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="575">
@@ -8449,7 +8449,7 @@
         <v>حکومت نے وہ نہیں کیا جو عوام چاہتے تھے۔</v>
       </c>
       <c r="D575" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="576">
@@ -8463,7 +8463,7 @@
         <v>یہ علاقہ لوگوں کو اپنی طرف متوجہ کرے گا جو یہاں آنا چاہتے ہیں۔</v>
       </c>
       <c r="D576" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="577">
@@ -8477,7 +8477,7 @@
         <v>وہ امیر بننے کی کوشش کر رہا ہے۔</v>
       </c>
       <c r="D577" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="578">
@@ -8491,7 +8491,7 @@
         <v>وہ جنگ شروع کرنے والا نہیں تھا۔</v>
       </c>
       <c r="D578" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="579">
@@ -8505,7 +8505,7 @@
         <v>ڈاکٹر لیونگسٹون کو وہ پسند نہیں تھا۔</v>
       </c>
       <c r="D579" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="580">
@@ -8519,7 +8519,7 @@
         <v>ایک نئے اقدام کی ضرورت ہے۔</v>
       </c>
       <c r="D580" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="581">
@@ -8533,7 +8533,7 @@
         <v>آپ کو کھلاڑیوں کے نام جاننے کی ضرورت ہے۔</v>
       </c>
       <c r="D581" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="582">
@@ -8547,7 +8547,7 @@
         <v>لوگوں کو اچھی تعلیم حاصل کرنے کی ضرورت ہے۔</v>
       </c>
       <c r="D582" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="583">
@@ -8561,7 +8561,7 @@
         <v>ہمیں نظام کے دوسرے اجزاء کے اخراجات پر غور کرنا ہوگا۔</v>
       </c>
       <c r="D583" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="584">
@@ -8575,7 +8575,7 @@
         <v>اس نے یہ فیصلہ کر لیا ہے کہ وہ کیا کرنا چاہتا ہے۔</v>
       </c>
       <c r="D584" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="585">
@@ -8589,7 +8589,7 @@
         <v>حکومت کو معیشت کے بارے میں کچھ کرنا چاہیے۔</v>
       </c>
       <c r="D585" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="586">
@@ -8603,7 +8603,7 @@
         <v>وہ ایک بہت اخلاقی شخص ہے۔</v>
       </c>
       <c r="D586" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="587">
@@ -8617,7 +8617,7 @@
         <v>میں آپریشنز کا انچارج بننا چاہتا ہوں۔</v>
       </c>
       <c r="D587" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="588">
@@ -8631,7 +8631,7 @@
         <v>امریکی حکومت چاہتی ہے کہ معلومات آزادانہ طور پر بہیں۔</v>
       </c>
       <c r="D588" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="589">
@@ -8645,7 +8645,7 @@
         <v>آپ کو جھیل پر جانے کے لیے اجازت نامے کی ضرورت نہیں ہے۔</v>
       </c>
       <c r="D589" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="590">
@@ -8659,7 +8659,7 @@
         <v>اس موضوع پر ادب کا ایک جامع جائزہ لینے کی ضرورت ہے۔</v>
       </c>
       <c r="D590" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="591">
@@ -8673,7 +8673,7 @@
         <v>میں نہیں جانا چاہتا۔</v>
       </c>
       <c r="D591" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="592">
@@ -8687,7 +8687,7 @@
         <v>توانائی کی فراہمی میں تنوع پیدا کرنا توانائی کی سلامتی کے لیے اہم ہے۔</v>
       </c>
       <c r="D592" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="593">
@@ -8701,7 +8701,7 @@
         <v>مس پیجیٹ کہنا چاہتی تھیں کہ جان خوش قسمت تھا۔</v>
       </c>
       <c r="D593" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="594">
@@ -8715,7 +8715,7 @@
         <v>مقامی اسکول بورڈ کے سربراہ کے پاس وہ کرنے کی آزادی ہے جو وہ چاہتا ہے۔</v>
       </c>
       <c r="D594" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="595">
@@ -8729,7 +8729,7 @@
         <v>ایک بحث ہونی چاہیے۔</v>
       </c>
       <c r="D595" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="596">
@@ -8743,7 +8743,7 @@
         <v>ڈوتھراکی قارت شہر پر حملہ کرنا چاہتے ہیں۔</v>
       </c>
       <c r="D596" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="597">
@@ -8757,7 +8757,7 @@
         <v>اس کے بارے میں کچھ کرنے کی ضرورت ہے۔</v>
       </c>
       <c r="D597" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="598">
@@ -8771,7 +8771,7 @@
         <v>نئی ٹیم اس بات کے لیے پرعزم ہے جو کوچ کرنے کی کوشش کر رہا ہے۔</v>
       </c>
       <c r="D598" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="599">
@@ -8785,7 +8785,7 @@
         <v>جب میں اتنا نروس نہیں تھا تو میں اس کے ساتھ زیادہ کھلا تھا۔</v>
       </c>
       <c r="D599" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="600">
@@ -8799,7 +8799,7 @@
         <v>تنظیم میں تبدیلی کی ضرورت ہے۔</v>
       </c>
       <c r="D600" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="601">
@@ -8813,7 +8813,7 @@
         <v>یہ ٹیسٹ قابل اعتماد نہیں ہے۔</v>
       </c>
       <c r="D601" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="602" xml:space="preserve">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -8835,7 +8835,7 @@
         <v>وہ مزید فرانسیسی کینیڈین موری مچھلی کے گھر سے رینگتے ہوئے آئے۔</v>
       </c>
       <c r="D602" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="603">
@@ -8849,7 +8849,7 @@
         <v>عوامی جگہ پر بوسہ لینے کے لیے والدین کی رضا مندی ضروری ہے۔</v>
       </c>
       <c r="D603" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="604">
@@ -8863,7 +8863,7 @@
         <v>انڈریا وان ہابسبورگ اپنے خاندان کی سب سے بڑی بچی ہے۔</v>
       </c>
       <c r="D604" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="605">
@@ -8877,7 +8877,7 @@
         <v>قومی پارک ٹرسٹ نے 20 سے زائد اعلیٰ ترجیحی مقامات پر زمین فروخت کے لیے پیش کی ہے۔</v>
       </c>
       <c r="D605" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="606">
@@ -8891,7 +8891,7 @@
         <v>ٹیراریم پلاسٹک یا شیشہ سے بنائے جانے چاہئیں۔</v>
       </c>
       <c r="D606" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="607">
@@ -8905,7 +8905,7 @@
         <v>نہر کے کنارے پر کٹاؤ روکنے کے لیے بنایا گیا مواد بایوڈیگریڈایبل نہیں ہے۔</v>
       </c>
       <c r="D607" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="608">
@@ -8919,7 +8919,7 @@
         <v>ڈونلڈ کونروئے 67 سال کی عمر میں انتقال کر گئے۔</v>
       </c>
       <c r="D608" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="609">
@@ -8933,7 +8933,7 @@
         <v>امریکی متبادل راک بینڈ 10,000 Maniacs کے ساتھ موسیقی جمع کرنے کے علاوہ، میری ریمسی کو فolk راک جوڑی جان اور میری کی رکن کے طور پر بھی دیکھا جانا چاہیے۔</v>
       </c>
       <c r="D609" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="610">
@@ -8947,7 +8947,7 @@
         <v>یہ اقتباس مکمل ہو گیا ہے۔</v>
       </c>
       <c r="D610" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="611">
@@ -8961,7 +8961,7 @@
         <v>ایک والڈیز آپ سے سیدھے بیٹھنے کا تقاضا کرتا ہے۔</v>
       </c>
       <c r="D611" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="612">
@@ -8975,7 +8975,7 @@
         <v>اسپیکر اپنے دوسرے دور میں ہیں۔</v>
       </c>
       <c r="D612" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="613" xml:space="preserve">
@@ -8992,7 +8992,7 @@
         <v>جانٹ ایک چچا ہے۔</v>
       </c>
       <c r="D613" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="614">
@@ -9006,7 +9006,7 @@
         <v>ابیا ریاست کا گورنر بھی صدر ہے۔</v>
       </c>
       <c r="D614" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="615">
@@ -9020,7 +9020,7 @@
         <v>والٹر موری نے کہا کہ یہ ایک بے وقوفانہ حملہ تھا۔</v>
       </c>
       <c r="D615" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="616">
@@ -9034,7 +9034,7 @@
         <v>لامحدود سمندری بیمہ افراد کے لیے دستیاب نہیں ہے، صرف تجارتی جہازوں کے لیے۔</v>
       </c>
       <c r="D616" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="617">
@@ -9048,7 +9048,7 @@
         <v>کانسٹنس گفتگو یا موضوع میں دلچسپی نہیں دکھا رہی تھی۔</v>
       </c>
       <c r="D617" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="618">
@@ -9062,7 +9062,7 @@
         <v>آئی بی ایس کے مریضوں کو صرف پانی پینا چاہیے۔</v>
       </c>
       <c r="D618" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="619">
@@ -9076,7 +9076,7 @@
         <v>نیو ڈے ایک 1949 کی کتاب ہے جو جمیکا کے مصنف وی۔ ایس۔ ریڈ نے لکھی ہے۔ یہ 46 سال سے زیادہ پرانی ہے۔</v>
       </c>
       <c r="D619" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="620">
@@ -9090,7 +9090,7 @@
         <v>معاہدے کے لیے ووٹ دینے والوں کی عمر 25 سے 30 سال کے درمیان ہے۔</v>
       </c>
       <c r="D620" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="621">
@@ -9104,7 +9104,7 @@
         <v>یہ البم ایک D سے شروع ہوتا ہے۔</v>
       </c>
       <c r="D621" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="622">
@@ -9118,7 +9118,7 @@
         <v>ایڈ ایگن نے ایکٹو راسٹر پر کھیلنے کا موقع پایا۔</v>
       </c>
       <c r="D622" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="623">
@@ -9132,7 +9132,7 @@
         <v>کینیلو ایلوریز بمقابلہ جولیو سیزر چاؤیز جونیئر 2016 کے بعد منعقد ہوا۔</v>
       </c>
       <c r="D623" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="624">
@@ -9146,7 +9146,7 @@
         <v>ہیئر پروڈکٹ سستی نہیں ہے۔</v>
       </c>
       <c r="D624" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="625">
@@ -9160,7 +9160,7 @@
         <v>پیرس قدرتی وجوہات کی بنا پر فوت ہوگئے۔</v>
       </c>
       <c r="D625" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="626">
@@ -9174,7 +9174,7 @@
         <v>جلدی کینسر اوزون کی تہہ سے منسلک ہے۔</v>
       </c>
       <c r="D626" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="627">
@@ -9188,7 +9188,7 @@
         <v>ڈرمل فلرز کے انفیکشن سوزش کے ساتھ ہو سکتے ہیں۔</v>
       </c>
       <c r="D627" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="628">
@@ -9202,7 +9202,7 @@
         <v>بگ ڈیٹا ایک منصوبہ تھا جو جوائے ویو نے بنایا تھا۔</v>
       </c>
       <c r="D628" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="629">
@@ -9216,7 +9216,7 @@
         <v>ایم ایس کے درد کا جراحی علاج کرنے کے لیے، پہلے پٹھوں کو آرام دیں۔</v>
       </c>
       <c r="D629" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="630">
@@ -9230,7 +9230,7 @@
         <v>سرجری میں ایک "گ" شامل ہے۔</v>
       </c>
       <c r="D630" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="631">
@@ -9244,7 +9244,7 @@
         <v>سرجری ایک سرجن کے ذریعہ کی جاتی ہے۔</v>
       </c>
       <c r="D631" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="632">
@@ -9258,7 +9258,7 @@
         <v>زیادہ تر لوگوں نے گانا "او مائی" کے بارے میں نہیں سنا۔</v>
       </c>
       <c r="D632" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="633">
@@ -9272,7 +9272,7 @@
         <v>جسٹس بریئر ایک ناشر ہیں۔</v>
       </c>
       <c r="D633" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="634">
@@ -9286,7 +9286,7 @@
         <v>بلدیہ اور کمیون کا مطلب ایک ہی چیز ہے۔</v>
       </c>
       <c r="D634" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="635">
@@ -9300,7 +9300,7 @@
         <v>کیٹ موس نے اپنے ہیئر پروڈکٹ لائن کا آغاز کیا ہے۔</v>
       </c>
       <c r="D635" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="636">
@@ -9314,7 +9314,7 @@
         <v>یہ سلسلہ ایک ریٹائرڈ جاز موسیقار جیکی ایوانز کے بارے میں تھا۔</v>
       </c>
       <c r="D636" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="637">
@@ -9328,7 +9328,7 @@
         <v>ولیم تھامس ہیریس ایک کینیڈیائی پیچر تھے جو دوگے ویل کے لیے بائیں ہاتھ سے بیٹنگ کرتے تھے۔</v>
       </c>
       <c r="D637" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="638">
@@ -9342,7 +9342,7 @@
         <v>کیک پر اسپرنکلز ڈالے جانے چاہئیں۔</v>
       </c>
       <c r="D638" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="639">
@@ -9356,7 +9356,7 @@
         <v>بلیو رِیج پارک وے شمالی کیرولائنا اور ورجینیا میں واقع ہے۔</v>
       </c>
       <c r="D639" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="640">
@@ -9370,7 +9370,7 @@
         <v>گینٹ جنازہ گھر جان کی موت کا ذمہ دار ہے۔</v>
       </c>
       <c r="D640" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="641">
@@ -9384,7 +9384,7 @@
         <v>ہڑتال کی وجہ سے ترسیل میں تاخیر ہوگی۔</v>
       </c>
       <c r="D641" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="642">
@@ -9398,7 +9398,7 @@
         <v>ذیلی کمیٹی بہار 1999 میں 4 سفر کرے گی۔</v>
       </c>
       <c r="D642" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="643">
@@ -9412,7 +9412,7 @@
         <v>مخرجوں کو ضرب دیں۔</v>
       </c>
       <c r="D643" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="644">
@@ -9426,7 +9426,7 @@
         <v>کسی نے ڈونلڈ رِکلس کی زندگی کے بارے میں ایک کہانی بنانی ہے۔</v>
       </c>
       <c r="D644" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="645">
@@ -9440,7 +9440,7 @@
         <v>ایڈیلفیا ریاستہائے متحدہ میں نویں سب سے بڑی کیبل سروس فراہم کنندہ نہیں ہے جس کے تقریباً 5 ملین سبسکرائبرز ہیں۔</v>
       </c>
       <c r="D645" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="646">
@@ -9454,7 +9454,7 @@
         <v>عدد شمار کو جمع کریں۔</v>
       </c>
       <c r="D646" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="647">
@@ -9468,7 +9468,7 @@
         <v>ایلزے وان گلاز حقیقی زندگی میں ایک وکیل تھیں۔</v>
       </c>
       <c r="D647" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="648">
@@ -9482,7 +9482,7 @@
         <v>مک گلّس کے فیصلے نے ان کی شہرت کو نقصان پہنچایا۔</v>
       </c>
       <c r="D648" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="649">
@@ -9496,7 +9496,7 @@
         <v>آپ کو برازنگ کے لیے رومی سلاد کا استعمال کرنا چاہیے۔</v>
       </c>
       <c r="D649" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="650">
@@ -9510,7 +9510,7 @@
         <v>دانی نے خودکشی کی روک تھام کی ہاٹ لائن پر رضاکارانہ خدمات انجام دے کر کسی کو مختلف انتخاب کرنے میں مدد کی ہے۔</v>
       </c>
       <c r="D650" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="651">
@@ -9524,7 +9524,7 @@
         <v>کالج فٹ بال کے آل اسٹار گیم کے کھلاڑی مشرق-مغرب شراں گیم میں کھیلتے ہیں۔</v>
       </c>
       <c r="D651" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="652">
@@ -9538,7 +9538,7 @@
         <v>تھامس ریان 2008 میں 52 سال کے تھے۔</v>
       </c>
       <c r="D652" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="653">
@@ -9552,7 +9552,7 @@
         <v>دانی جانتا تھا کہ یہ کتنا مشکل ہو سکتا ہے۔</v>
       </c>
       <c r="D653" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="654">
@@ -9566,7 +9566,7 @@
         <v>حکام اس نتیجے پر نہیں پہنچے کہ یہ ایک قتل تھا۔</v>
       </c>
       <c r="D654" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="655">
@@ -9580,7 +9580,7 @@
         <v>ہنری نے مشین کی ایجاد کے 7 سال بعد وفات پائی۔</v>
       </c>
       <c r="D655" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="656">
@@ -9594,7 +9594,7 @@
         <v>سیلما ڈائمنڈ 60 سال کی عمر میں انتقال کر گئیں۔</v>
       </c>
       <c r="D656" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="657">
@@ -9608,7 +9608,7 @@
         <v>میری آبائی صوبہ ساسکواچ ہے۔</v>
       </c>
       <c r="D657" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="658">
@@ -9622,7 +9622,7 @@
         <v>روس امریکہ کی بات سنتا ہے۔</v>
       </c>
       <c r="D658" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="659">
@@ -9636,7 +9636,7 @@
         <v>اسٹیون چیالانڈر قومی ٹرانسپورٹیشن سیفٹی بورڈ کے لیے کام کرتا ہے۔</v>
       </c>
       <c r="D659" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="660">
@@ -9650,7 +9650,7 @@
         <v>تمام ستاروں کا کھیل کالج فٹ بال کے بعد کے موسم کے بعد کھیلا جاتا ہے۔</v>
       </c>
       <c r="D660" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="661">
@@ -9664,7 +9664,7 @@
         <v>تعلیمی نظام میں بڑی خامیاں ہیں اور کوئی بھی بچہ پیچھے نہیں رہنا چاہیے۔</v>
       </c>
       <c r="D661" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="662">
@@ -9678,7 +9678,7 @@
         <v>بے بی بومرز وہ ہیں جنہیں آسمان چھوتی ہوئی گھر کی قیمتوں کا الزام دیا جا رہا ہے۔</v>
       </c>
       <c r="D662" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="663">
@@ -9692,7 +9692,7 @@
         <v>ہینک نے دو دن پہلے ایک بھرائی کروائی۔</v>
       </c>
       <c r="D663" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="664">
@@ -9706,7 +9706,7 @@
         <v>ٹمپا کی ٹیم نے 1991 کے انتخابی عمل کے چوتھے راؤنڈ میں ایرکسن کو منتخب کیا۔</v>
       </c>
       <c r="D664" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="665">
@@ -9720,7 +9720,7 @@
         <v>وِٹا، ویکٹا کا بیٹا، لُوٹ سننا پسند کرتا ہے۔</v>
       </c>
       <c r="D665" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="666">
@@ -9734,7 +9734,7 @@
         <v>پانی کی مرکزی لائن کا ٹوٹنا روکا جا سکتا تھا۔</v>
       </c>
       <c r="D666" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="667">
@@ -9748,7 +9748,7 @@
         <v>تمام پانچ دوست خواتین ہیں۔</v>
       </c>
       <c r="D667" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="668">
@@ -9762,7 +9762,7 @@
         <v>کوٹا رام کرشنا کارنتھ اپریل کے بعد پیدا ہوئے۔</v>
       </c>
       <c r="D668" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="669">
@@ -9776,7 +9776,7 @@
         <v>میرے ساتھی نے بھی ذکر کیا کہ ہم کچھ تجویز کردہ تبدیلیاں قبول کر سکتے ہیں جو کہ تقریباً اچھی تھیں۔</v>
       </c>
       <c r="D669" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="670">
@@ -9790,7 +9790,7 @@
         <v>بلیو رِیج پارک وے نجی پارٹیوں کو فروخت کر دی گئی ہے۔</v>
       </c>
       <c r="D670" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="671">
@@ -9804,7 +9804,7 @@
         <v>مقرر کو سارہ کی آنکھوں کا رنگ معلوم ہے۔</v>
       </c>
       <c r="D671" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="672">
@@ -9818,7 +9818,7 @@
         <v>نجی جماعتیں قومی پارک ٹرسٹ سے زمین خریدنے میں دلچسپی رکھتی ہیں۔</v>
       </c>
       <c r="D672" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="673">
@@ -9832,7 +9832,7 @@
         <v>مینسن 74 واں کھیل نہیں کھیلے گا۔</v>
       </c>
       <c r="D673" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="674">
@@ -9846,7 +9846,7 @@
         <v>اے بی سی نے "لاسٹ" کم از کم 6 سیزن تک چلایا۔</v>
       </c>
       <c r="D674" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="675">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -9860,7 +9860,7 @@
         <v>ٹرگر فوڈز کے بارے میں آگاہ ہونا اور انہیں IBS اور GERD دونوں سے بچنا ضروری ہے کیونکہ یہ دونوں حالتیں ایک جیسی ہیں۔</v>
       </c>
       <c r="D675" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="676">
@@ -9874,7 +9874,7 @@
         <v>ایرا ہیڈن کا پہلا فلمی کردار 1987 میں تھا۔</v>
       </c>
       <c r="D676" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="677">
@@ -9888,7 +9888,7 @@
         <v>فلوریڈا میں ریئلٹرز misconduct کے ساتھ عمل نہیں کر سکتے لیکن اپنے کلائنٹس کی نمائندگی کرتے وقت غیر مؤثر ہو سکتے ہیں۔</v>
       </c>
       <c r="D677" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="678">
@@ -9902,7 +9902,7 @@
         <v>سائنس مشاورتی بورڈ کا آڈٹ کیا جا رہا ہے۔</v>
       </c>
       <c r="D678" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="679">
@@ -9916,7 +9916,7 @@
         <v>کیڑے کتے کے فضلے سے متاثر ہوتے ہیں۔</v>
       </c>
       <c r="D679" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="680">
@@ -9930,7 +9930,7 @@
         <v>راہل گاندھی واقعی نریندر مودی کو پسند کرتے ہیں۔</v>
       </c>
       <c r="D680" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="681">
@@ -9944,7 +9944,7 @@
         <v>کوپر–فروسٹ–آسٹن ہاؤس ابتدائی مئی میں نجی دورے پیش کرتا ہے۔</v>
       </c>
       <c r="D681" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="682">
@@ -9958,7 +9958,7 @@
         <v>وہ دوپہر کے وسط میں پہنچی۔</v>
       </c>
       <c r="D682" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="683">
@@ -9972,7 +9972,7 @@
         <v>ایکس آف پرڈیشن ایک کوریائی پاپ گروپ ہے۔</v>
       </c>
       <c r="D683" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="684">
@@ -9986,7 +9986,7 @@
         <v>آرچ بشپوں کے ساتھ بالکل اسی طرح سلوک کیا جانا چاہیے جیسے کسی اور چرچ کے رکن کے ساتھ۔</v>
       </c>
       <c r="D684" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="685">
@@ -10000,7 +10000,7 @@
         <v>ریٹاٹوئیل کار میں کھیلا جا سکتا ہے۔</v>
       </c>
       <c r="D685" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="686" xml:space="preserve">
@@ -10017,7 +10017,7 @@
         <v>وہ خوفزدہ تھے کہ جب وہ واپس آئیں گے تو تمام بچے بیمار ہوں گے۔</v>
       </c>
       <c r="D686" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="687">
@@ -10031,7 +10031,7 @@
         <v>ایک نظم میں قافیہ ہونا ضروری ہے۔</v>
       </c>
       <c r="D687" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="688">
@@ -10045,7 +10045,7 @@
         <v>ایتھن ان جڑی بوٹیوں کو اسی باغ میں اگا سکتا تھا۔</v>
       </c>
       <c r="D688" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="689">
@@ -10059,7 +10059,7 @@
         <v>ایسوسی ایٹڈ پریس نے یہ اعلان تحریر کیا۔</v>
       </c>
       <c r="D689" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="690">
@@ -10073,7 +10073,7 @@
         <v>اورسن ویلز ایک پروڈیوسر تھے۔</v>
       </c>
       <c r="D690" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="691">
@@ -10087,7 +10087,7 @@
         <v>جوئی گریسیفا ایک کمپیوٹر انجینئر ہے۔</v>
       </c>
       <c r="D691" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="692">
@@ -10101,7 +10101,7 @@
         <v>ریڈیو ہیڈ کے تین البمز جاری ہوئے ہیں۔</v>
       </c>
       <c r="D692" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="693">
@@ -10115,7 +10115,7 @@
         <v>وینوم عام طور پر اسپائیڈر مین سے منسلک ہوتا ہے۔</v>
       </c>
       <c r="D693" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="694">
@@ -10129,7 +10129,7 @@
         <v>میریلن برنز ایک تلوار باز تھیں۔</v>
       </c>
       <c r="D694" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="695">
@@ -10143,7 +10143,7 @@
         <v>جیم ہینسن ایک گلوکار تھے۔</v>
       </c>
       <c r="D695" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="696">
@@ -10157,7 +10157,7 @@
         <v>کرن جوہر ایک صدر ہیں۔</v>
       </c>
       <c r="D696" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="697">
@@ -10171,7 +10171,7 @@
         <v>اورسن ویلز ایک اداکار تھے۔</v>
       </c>
       <c r="D697" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="698">
@@ -10185,7 +10185,7 @@
         <v>کلنٹ ایسٹ ووڈ موسیقی پیش کرتے ہیں۔</v>
       </c>
       <c r="D698" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="699">
@@ -10199,7 +10199,7 @@
         <v>ملکہ وکٹوریہ ایک ملک کی ملکہ تھیں۔</v>
       </c>
       <c r="D699" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="700">
@@ -10213,7 +10213,7 @@
         <v>وارم لیذرٹ ایک عورت کے ذریعہ ہے۔</v>
       </c>
       <c r="D700" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="701">
@@ -10227,7 +10227,7 @@
         <v>ایکس-Men: Days of Future Past 2010 کے بعد ریلیز ہوا۔</v>
       </c>
       <c r="D701" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="702">
@@ -10241,7 +10241,7 @@
         <v>جورڈن نائٹ ایک فلمی اداکار ہے۔</v>
       </c>
       <c r="D702" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="703">
@@ -10255,7 +10255,7 @@
         <v>مینیسوٹا فرانس میں ہے۔</v>
       </c>
       <c r="D703" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="704">
@@ -10269,7 +10269,7 @@
         <v>ہنٹنگٹن کی بیماری ایک عارضہ ہے جو وراثتی ہو سکتا ہے۔</v>
       </c>
       <c r="D704" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="705">
@@ -10283,7 +10283,7 @@
         <v>سُو سلویسٹر کو صرف ایک مرد اداکار نے پیش کیا ہے۔</v>
       </c>
       <c r="D705" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="706">
@@ -10297,7 +10297,7 @@
         <v>جوآن کرافورڈ نے اپنے کیریئر کا آغاز ایک اداکارہ کے طور پر کیا۔</v>
       </c>
       <c r="D706" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="707">
@@ -10311,7 +10311,7 @@
         <v>لئونارڈو ڈا ونچی تاریخ کے سب سے بڑے مصوروں میں سے ایک کے ساتھ تعلق میں ہیں۔</v>
       </c>
       <c r="D707" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="708">
@@ -10325,7 +10325,7 @@
         <v>فریڈ ٹرمپ دسمبر 1918 میں تیرہ سال کے تھے۔</v>
       </c>
       <c r="D708" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="709">
@@ -10339,7 +10339,7 @@
         <v>سوفیا کاپولا ایک چمکدار شراب ہے۔</v>
       </c>
       <c r="D709" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="710">
@@ -10353,7 +10353,7 @@
         <v>ایکس-Men (فلم) میں ایک کاسٹ ہے جس میں ایک امریکی اداکار اور گلوکار ایان میک کیلن شامل ہیں۔</v>
       </c>
       <c r="D710" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="711">
@@ -10367,7 +10367,7 @@
         <v>نیو کیسل یونائیٹڈ ایف سی کی سب سے کامیاب مدت مئی 1910 میں ختم ہوئی۔</v>
       </c>
       <c r="D711" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="712">
@@ -10381,7 +10381,7 @@
         <v>لئونارڈو ڈا ونچی نے جسمانیات کا مطالعہ کیا۔</v>
       </c>
       <c r="D712" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="713">
@@ -10395,7 +10395,7 @@
         <v>جوئی گریسیفا ایک جمہوریہ سے ہیں جو ایک وفاق پر مشتمل ہے، جو ایک آئین کی بنیاد پر ہے۔</v>
       </c>
       <c r="D713" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="714">
@@ -10409,7 +10409,7 @@
         <v>گلی ایک ہارر کامیڈی ہے۔</v>
       </c>
       <c r="D714" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="715">
@@ -10423,7 +10423,7 @@
         <v>دی بلیک لسٹ کے پائلٹ ایپی سوڈ کے ڈائریکٹر کی پیدائش کینیڈی کی انتظامیہ کے دوران ہوئی۔</v>
       </c>
       <c r="D715" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="716">
@@ -10437,7 +10437,7 @@
         <v>رومن رینز ایک باغبان ہیں۔</v>
       </c>
       <c r="D716" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="717">
@@ -10451,7 +10451,7 @@
         <v>ٹیڈ کینیڈی ایک امریکی سینیٹر ہیں۔</v>
       </c>
       <c r="D717" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="718">
@@ -10465,7 +10465,7 @@
         <v>سپر نیچرل ایک سیریز ہے۔</v>
       </c>
       <c r="D718" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="719">
@@ -10479,7 +10479,7 @@
         <v>بارہویں ڈاکٹر ایک برطانوی ٹیلی ویژن شو میں ہیں۔</v>
       </c>
       <c r="D719" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="720">
@@ -10493,7 +10493,7 @@
         <v>جیک پار 21ویں صدی کی ایک تاریخ کو فوت ہوئے۔</v>
       </c>
       <c r="D720" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="721">
@@ -10507,7 +10507,7 @@
         <v>بندر کی سیارے کی شوٹ کی ترتیبیں آزادی کے مجسمے کے ارد گرد اور اس کے اندر۔</v>
       </c>
       <c r="D721" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="722">
@@ -10521,7 +10521,7 @@
         <v>ون مور لائٹ سی بی ایس کے ذریعے جاری کیا گیا تھا۔</v>
       </c>
       <c r="D722" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="723">
@@ -10535,7 +10535,7 @@
         <v>وینٹ ورتھ ایک ٹیلی ویژن پر ایک واحد قسط ہے۔</v>
       </c>
       <c r="D723" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="724">
@@ -10549,7 +10549,7 @@
         <v>رابرٹ براؤننگ ایک ممتاز روسی سلطنت کے دور کا شاعر تھا۔</v>
       </c>
       <c r="D724" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="725">
@@ -10563,7 +10563,7 @@
         <v>آڈری ہورن کو ٹوئن پکٹس: دی ریٹرن میں متعارف کرایا گیا۔</v>
       </c>
       <c r="D725" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="726">
@@ -10577,7 +10577,7 @@
         <v>ایوان: دی لاسٹ ایئر بینڈر کا مرکزی کردار آنگ تھا۔</v>
       </c>
       <c r="D726" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="727">
@@ -10591,7 +10591,7 @@
         <v>ایوان گولڈبرگ ایک جرمن ڈائریکٹر ہیں۔</v>
       </c>
       <c r="D727" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="728">
@@ -10605,7 +10605,7 @@
         <v>سندی میک کین امریکی ہیں۔</v>
       </c>
       <c r="D728" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="729">
@@ -10619,7 +10619,7 @@
         <v>کولڈ پلے ایک برطانوی بینڈ ہے۔</v>
       </c>
       <c r="D729" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="730">
@@ -10633,7 +10633,7 @@
         <v>ٹیم ایلن نے ایک امریکی شو میں اداکاری کی۔</v>
       </c>
       <c r="D730" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="731">
@@ -10647,7 +10647,7 @@
         <v>ٹونی بلیئر کنزرویٹو پارٹی کے رہنما تھے۔</v>
       </c>
       <c r="D731" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="732">
@@ -10661,7 +10661,7 @@
         <v>ہیڈر واٹسن ایک چیمپئن ہے۔</v>
       </c>
       <c r="D732" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="733">
@@ -10675,7 +10675,7 @@
         <v>جان میک کین کو روس کے ساتھ سفارتی تعلقات بحال کرنے کے کام کے لیے جانا جاتا ہے۔</v>
       </c>
       <c r="D733" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="734">
@@ -10689,7 +10689,7 @@
         <v>ولادیمیر پوتن ایک حکومت کے چیئرمین تھے۔</v>
       </c>
       <c r="D734" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="735">
@@ -10703,7 +10703,7 @@
         <v>مہمان میں امریکی فلم کے اداکار شامل ہیں۔</v>
       </c>
       <c r="D735" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="736">
@@ -10717,7 +10717,7 @@
         <v>ٹموتھی اولیفنٹ ایک جانور تھا۔</v>
       </c>
       <c r="D736" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="737">
@@ -10731,7 +10731,7 @@
         <v>فرینک سیناترا کا درمیانہ نام سیم تھا۔</v>
       </c>
       <c r="D737" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="738">
@@ -10745,7 +10745,7 @@
         <v>سیج اسٹالون ایک والد تھے۔</v>
       </c>
       <c r="D738" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="739">
@@ -10759,7 +10759,7 @@
         <v>ماؤ زے تنگ روسی تھے۔</v>
       </c>
       <c r="D739" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="740">
@@ -10773,7 +10773,7 @@
         <v>لی ہاروی اوزوالڈ نے امریکہ کے 35ویں صدر کا قتل کیا۔</v>
       </c>
       <c r="D740" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="741">
@@ -10787,7 +10787,7 @@
         <v>گیبوری سڈیب ایک امریکی شہری ہیں۔</v>
       </c>
       <c r="D741" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="742">
@@ -10801,7 +10801,7 @@
         <v>گلی ایک فلم تھی۔</v>
       </c>
       <c r="D742" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="743">
@@ -10815,7 +10815,7 @@
         <v>ٹونی بلیئر ایک اداکار ہیں۔</v>
       </c>
       <c r="D743" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="744">
@@ -10829,7 +10829,7 @@
         <v>اینڈرسن کوپر ایک شخص ہے۔</v>
       </c>
       <c r="D744" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="745">
@@ -10843,7 +10843,7 @@
         <v>ہیتر واٹسن ایک ماں ہے۔</v>
       </c>
       <c r="D745" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="746">
@@ -10857,7 +10857,7 @@
         <v>جارج کلونی ایک کارٹونسٹ ہیں۔</v>
       </c>
       <c r="D746" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="747">
@@ -10871,7 +10871,7 @@
         <v>اوورل لاوین ایک موسیقار ہے۔</v>
       </c>
       <c r="D747" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="748">
@@ -10885,7 +10885,7 @@
         <v>ایمیلیو ایسٹیویز ایک گود میں پیدا ہوا۔</v>
       </c>
       <c r="D748" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="749">
@@ -10899,7 +10899,7 @@
         <v>می رینڈا کر ایک کینیڈین وکٹوریاز سیکرٹ ماڈل تھیں۔</v>
       </c>
       <c r="D749" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="750">
@@ -10913,7 +10913,7 @@
         <v>ہلک ایک تخلیق ہے۔</v>
       </c>
       <c r="D750" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="751">
@@ -10927,7 +10927,7 @@
         <v>مونیكا سیلیس نے ٹینس کھیلا۔</v>
       </c>
       <c r="D751" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="752">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -10885,7 +10885,7 @@
         <v>ایمیلیو ایسٹیویز ایک گود میں پیدا ہوا۔</v>
       </c>
       <c r="D748" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="749">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -10941,7 +10941,7 @@
         <v>پینی ڈریڈفل اکیسویں صدی میں شروع ہوا۔</v>
       </c>
       <c r="D752" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="753">
@@ -10955,7 +10955,7 @@
         <v>ڈوگ جونز سینما کے کاروبار میں ملازمت کرتا ہے۔</v>
       </c>
       <c r="D753" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="754">
@@ -10969,7 +10969,7 @@
         <v>وارم لیذرٹ ایک جامائیکا میں پیدا ہونے والی گلوکارہ کی تخلیق ہے اور یہ 1980 میں جاری ہوا تھا۔</v>
       </c>
       <c r="D754" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="755">
@@ -10983,7 +10983,7 @@
         <v>گلی ایک ٹی وی سیریز تھی۔</v>
       </c>
       <c r="D755" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="756">
@@ -10997,7 +10997,7 @@
         <v>ایستلا وارن جمنائی ہیں۔</v>
       </c>
       <c r="D756" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="757">
@@ -11011,7 +11011,7 @@
         <v>ڈیسپرٹ ہاؤس وائیوز ایک ٹی وی سیریز ہے۔</v>
       </c>
       <c r="D757" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="758">
@@ -11025,7 +11025,7 @@
         <v>ایمنیم ایک جمنائی تھا۔</v>
       </c>
       <c r="D758" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="759">
@@ -11039,7 +11039,7 @@
         <v>تھامس ڈی سموون ہیٹی میں غائب ہوگئے۔</v>
       </c>
       <c r="D759" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="760">
@@ -11053,7 +11053,7 @@
         <v>ویلیم آر. ٹولبرٹ جونیئر کو قتل کر دیا گیا۔</v>
       </c>
       <c r="D760" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="761">
@@ -11067,7 +11067,7 @@
         <v>می رینڈا کوسگروو ایک ریس کار ڈرائیور ہے۔</v>
       </c>
       <c r="D761" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="762">
@@ -11081,7 +11081,7 @@
         <v>وینونا جد نے پانی کی ایروبکس میں حصہ لیا ہے۔</v>
       </c>
       <c r="D762" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="763">
@@ -11095,7 +11095,7 @@
         <v>ٹرے کول گرین ڈے کے ڈرمیر ہیں۔</v>
       </c>
       <c r="D763" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="764">
@@ -11109,7 +11109,7 @@
         <v>ڈیوڈ شوئمر نے 8 اکتوبر 2004 کو "فرینڈز" میں اداکاری ختم کی۔</v>
       </c>
       <c r="D764" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="765">
@@ -11123,7 +11123,7 @@
         <v>جینادی گولووکن ایک تلوار باز ہے۔</v>
       </c>
       <c r="D765" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="766">
@@ -11137,7 +11137,7 @@
         <v>ڈینس ہوپر ایک شخص تھے۔</v>
       </c>
       <c r="D766" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="767">
@@ -11151,7 +11151,7 @@
         <v>سیج اسٹالون چین میں پیدا ہوا تھا۔</v>
       </c>
       <c r="D767" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="768">
@@ -11165,7 +11165,7 @@
         <v>لورنس اولیور امریکہ میں تھے۔</v>
       </c>
       <c r="D768" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="769">
@@ -11179,7 +11179,7 @@
         <v>جینادی گولووکن ایک سپیڈ ہے۔</v>
       </c>
       <c r="D769" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="770">
@@ -11193,7 +11193,7 @@
         <v>نوواک جوکووچ ایک کھلاڑی ہیں۔</v>
       </c>
       <c r="D770" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="771">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -11207,7 +11207,7 @@
         <v>گریس جونز نے "ا ویو ٹو کل" میں پرفارم کیا۔</v>
       </c>
       <c r="D771" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="772">
@@ -11221,7 +11221,7 @@
         <v>ڈینس ہوپر ایک آسٹریلیائی تھے۔</v>
       </c>
       <c r="D772" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="773">
@@ -11235,7 +11235,7 @@
         <v>محبت اور دوستی ایک اشتہار ہے۔</v>
       </c>
       <c r="D773" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="774">
@@ -11249,7 +11249,7 @@
         <v>اسپین ایک ملک ہے۔</v>
       </c>
       <c r="D774" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="775">
@@ -11263,7 +11263,7 @@
         <v>ٹونی گولڈوین ایک جرمن پروڈیوسر ہیں۔</v>
       </c>
       <c r="D775" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="776">
@@ -11277,7 +11277,7 @@
         <v>رومن رینز ایک پیشہ ور بیس بال کھلاڑی ہیں۔</v>
       </c>
       <c r="D776" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="777">
@@ -11291,7 +11291,7 @@
         <v>ولادیمیر پیوٹن 1997 سے 2008 تک صدر رہے۔</v>
       </c>
       <c r="D777" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="778">
@@ -11305,7 +11305,7 @@
         <v>سیٹل ریاست واشنگٹن کا سب سے بڑا شہر ہے۔</v>
       </c>
       <c r="D778" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="779">
@@ -11319,7 +11319,7 @@
         <v>اینڈی کافمین ایک ظالم تھا۔</v>
       </c>
       <c r="D779" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="780">
@@ -11333,7 +11333,7 @@
         <v>ڈینی کیری کا کوئی درمیانی نام نہیں ہے۔</v>
       </c>
       <c r="D780" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="781">
@@ -11347,7 +11347,7 @@
         <v>ٹائیگر ووڈز نے پام اسپرنگز انویٹیشنل جیت لیا۔</v>
       </c>
       <c r="D781" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="782">
@@ -11361,7 +11361,7 @@
         <v>BRIT اسکول 1922 میں قائم ہوا تھا۔</v>
       </c>
       <c r="D782" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="783">
@@ -11375,7 +11375,7 @@
         <v>جان وین گیسی جونیئر جرائم میں ملوث تھا۔</v>
       </c>
       <c r="D783" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="784">
@@ -11389,7 +11389,7 @@
         <v>شوٹز اسٹافیل کے کمانڈر ہائنرش ہملر تھے۔</v>
       </c>
       <c r="D784" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="785">
@@ -11403,7 +11403,7 @@
         <v>فرگی کا ایک کتا ہے جس کا نام "آؤٹ اسپوکن" ہے۔</v>
       </c>
       <c r="D785" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="786">
@@ -11417,7 +11417,7 @@
         <v>جوئی گریسیفا نے سان برنارڈینو، کیلیفورنیا میں واقع ایک ویب سائٹ کے ساتھ کام کیا۔</v>
       </c>
       <c r="D786" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="787">
@@ -11431,7 +11431,7 @@
         <v>دی لیفٹ اوورز میں ایک اداکار ہے۔</v>
       </c>
       <c r="D787" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="788">
@@ -11445,7 +11445,7 @@
         <v>کارمیلو انتھونی ایک فٹ بال ٹیم کے لیے کھیلتا ہے۔</v>
       </c>
       <c r="D788" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="789">
@@ -11459,7 +11459,7 @@
         <v>ٹام فیلیٹن ایک جمنائی ہے۔</v>
       </c>
       <c r="D789" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="790">
@@ -11473,7 +11473,7 @@
         <v>گلی کا آخری سیزن 19 اپریل 2013 کو آرڈر کیا گیا تھا۔</v>
       </c>
       <c r="D790" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="791">
@@ -11487,7 +11487,7 @@
         <v>گلی ایک فلم تھی۔</v>
       </c>
       <c r="D791" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="792">
@@ -11501,7 +11501,7 @@
         <v>تمام قوانین جو بچوں کی تحویل کے حق کے بارے میں ہیں، والدین کے لئے شادی شدہ ہونا لازمی قرار دیتے ہیں۔</v>
       </c>
       <c r="D792" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="793">
@@ -11515,7 +11515,7 @@
         <v>ایک مقدمے میں گواہان عدالت میں پیش ہوئے۔</v>
       </c>
       <c r="D793" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="794">
@@ -11529,7 +11529,7 @@
         <v>ڈیکٹر نے "میرے پاس ایک خواب ہے" آئس کریم کے خیال پر ہنسی اڑائی۔</v>
       </c>
       <c r="D794" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="795">
@@ -11543,7 +11543,7 @@
         <v>مچھلی نے تسلیم کیا کہ وہ غلط ہو سکتا ہے۔</v>
       </c>
       <c r="D795" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="796">
@@ -11557,7 +11557,7 @@
         <v>شیطان کا وکیل بننے کی کوشش نہیں کر رہا لیکن، موسولینی ٹڈجمان کے لیے بنیادی تحریک تھا، کیونکہ وہ ایک نوجوان سیاستدان تھا۔</v>
       </c>
       <c r="D796" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="797">
@@ -11571,7 +11571,7 @@
         <v>فالویل طرز کے عیسائیوں کا یقین ہے کہ مسیح یہودی تھے۔</v>
       </c>
       <c r="D797" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="798">
@@ -11585,7 +11585,7 @@
         <v>وہ کہتے ہیں کہ اس کی معلومات پر غور کرنے کے قابل نہیں ہیں۔</v>
       </c>
       <c r="D798" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="799">
@@ -11599,7 +11599,7 @@
         <v>ریچی اور ڈاکٹر نے مقدمے کے دوران وائنٹ کے خلاف کسی بھی غلط عمل کا ارتکاب کرنے سے انکار کیا۔</v>
       </c>
       <c r="D799" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="800">
@@ -11613,7 +11613,7 @@
         <v>قارئ نے کتاب کو آخر تک پڑھنا جاری رکھا۔</v>
       </c>
       <c r="D800" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="801">
@@ -11627,7 +11627,7 @@
         <v>کئی مجرموں کو بغیر حفاظتی تدابیر کے صدر اور خصوصی مفادات کے گروہوں کے ساتھ قریبی تعامل کی اجازت دی جائے گی۔</v>
       </c>
       <c r="D801" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="802">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -11641,7 +11641,7 @@
         <v>نیو یارکر نے یورپ سے خطوط کا کالم بند کر دیا۔</v>
       </c>
       <c r="D802" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="803">
@@ -11655,7 +11655,7 @@
         <v>میرا نام ممکنہ طور پر پیئر لیکلاک ہو سکتا ہے۔</v>
       </c>
       <c r="D803" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="804">
@@ -11669,7 +11669,7 @@
         <v>پن بال مشینیں جوا کھیلنے کے لیے استعمال کی جا سکتی ہیں۔</v>
       </c>
       <c r="D804" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="805">
@@ -11683,7 +11683,7 @@
         <v>بم سے متعلق جرم کو کسی دوسرے جرم کی طرح مقدمہ چلایا جائے گا۔</v>
       </c>
       <c r="D805" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="806">
@@ -11697,7 +11697,7 @@
         <v>نیو ہیمپشائر اور آئیووا اکثر انسان کے خیالات کو بدل دیتے ہیں۔</v>
       </c>
       <c r="D806" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="807">
@@ -11711,7 +11711,7 @@
         <v>اس وقت ایک ذہین شخص زندہ ہے جو اس میں ہماری مدد کر سکتا ہے۔</v>
       </c>
       <c r="D807" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="808">
@@ -11725,7 +11725,7 @@
         <v>اس میں کوئی شک نہیں کہ دوسرے سیاروں پر زندگی موجود ہے۔</v>
       </c>
       <c r="D808" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="809">
@@ -11739,7 +11739,7 @@
         <v>ڈوروتھی ہیلی نے موریس کو جانا۔</v>
       </c>
       <c r="D809" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="810">
@@ -11753,7 +11753,7 @@
         <v>اس مقام پر اپیل کرنا غلط ہے۔</v>
       </c>
       <c r="D810" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="811">
@@ -11767,7 +11767,7 @@
         <v>لابی کرنے والے اور بڑے عطیہ دہندگان کو سینیٹروں تک رسائی حاصل ہے۔</v>
       </c>
       <c r="D811" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="812">
@@ -11781,7 +11781,7 @@
         <v>در حقیقت 1992 میں مزید قومیں تھیں جو شرکت کر سکتی تھیں،</v>
       </c>
       <c r="D812" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="813">
@@ -11795,7 +11795,7 @@
         <v>کسی نے شاید کینتھ اسٹار کو اس ہفتے کے "یہ ہفتہ" کی ایک ٹیپ دے دی۔</v>
       </c>
       <c r="D813" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="814">
@@ -11809,7 +11809,7 @@
         <v>ریبوک نے جان بوجھ کر اس کا ایک اشتعال انگیز نام رکھا۔</v>
       </c>
       <c r="D814" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="815">
@@ -11823,7 +11823,7 @@
         <v>گود لی گئی بچہ کھیل کے میدان میں سب کو تنگ کرتا ہے۔</v>
       </c>
       <c r="D815" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="816">
@@ -11837,7 +11837,7 @@
         <v>بجلی کے نیٹ ورکس، بینکوں، ہوائی ٹریفک کے کمپیوٹرز، طبی آلات، اور اسی طرح کے دیگر نظاموں کی مہلک بندشوں سے اب کئی سالوں تک بچا جا سکے گا۔</v>
       </c>
       <c r="D816" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="817">
@@ -11851,7 +11851,7 @@
         <v>وہ مفروضے جن پر لینگ کا یقین ہے کہ وہ بڑی حد تک تصدیق شدہ ہیں، غلط ہیں۔</v>
       </c>
       <c r="D817" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="818">
@@ -11865,7 +11865,7 @@
         <v>آج ایک جاسوس نے دعویٰ کیا کہ مردہ شخص کی معلومات کے مطابق، جب ایک خط لکھنے والے نے انٹرویو لیا، تو امریکی حکام نے ڈیم کے قتل کی منظوری دی ہو سکتی ہے۔</v>
       </c>
       <c r="D818" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="819">
@@ -11879,7 +11879,7 @@
         <v>ریپبلکنز صدر کی تنقید سے پرہیز کرتے ہیں کیونکہ وہ ان کی جماعت سے ہیں۔</v>
       </c>
       <c r="D819" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="820">
@@ -11893,7 +11893,7 @@
         <v>آپ اس کے چہرے پر درد کو واضح طور پر دیکھ سکتے تھے اور وہ بے حد مایوس لگ رہا تھا۔</v>
       </c>
       <c r="D820" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="821">
@@ -11907,7 +11907,7 @@
         <v>اس کے پاس ان سے ایک راز تھا۔</v>
       </c>
       <c r="D821" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="822">
@@ -11921,7 +11921,7 @@
         <v>یہ کہنا مشکل تھا کہ آیا وہ صحیح جگہ پر ہیں۔</v>
       </c>
       <c r="D822" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="823">
@@ -11935,7 +11935,7 @@
         <v>غیر ریگولیشن کے حامیوں کو پچھلے سالگرہوں میں کئی تحائف دیے گئے ہیں۔</v>
       </c>
       <c r="D823" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="824">
@@ -11949,7 +11949,7 @@
         <v>عمان ایک مہنگی ناکامی تھی۔</v>
       </c>
       <c r="D824" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="825">
@@ -11963,7 +11963,7 @@
         <v>ملازمین کو شیئر ہولڈرز کو انڈے بیچنے چاہئیں۔</v>
       </c>
       <c r="D825" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="826">
@@ -11977,7 +11977,7 @@
         <v>کالج کے طلباء کو پسینے کی دکانوں کی پرواہ نہیں ہے۔</v>
       </c>
       <c r="D826" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="827">
@@ -11991,7 +11991,7 @@
         <v>یہ ممکن ہے کہ کانگریس زیادہ خرچ کرے گی۔</v>
       </c>
       <c r="D827" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="828">
@@ -12005,7 +12005,7 @@
         <v>جیس گپتا ممکنہ طور پر ہم جنس پرست ہو سکتا ہے۔</v>
       </c>
       <c r="D828" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="829">
@@ -12019,7 +12019,7 @@
         <v>ہنری کو ایک لڑکی کو خوشی سے چلاّنے کا شوق تھا، اسے وہ چیزیں دے کر جو اسے پسند تھیں۔</v>
       </c>
       <c r="D829" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="830">
@@ -12033,7 +12033,7 @@
         <v>مُورمنز نے تعدد ازدواج کا عمل کیا۔</v>
       </c>
       <c r="D830" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="831">
@@ -12047,7 +12047,7 @@
         <v>سرمایہ کاروں کو منفی معلومات کی وجہ سے مائیکروسافٹ سے اپنا پیسہ نکال لینا چاہیے۔</v>
       </c>
       <c r="D831" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="832">
@@ -12061,7 +12061,7 @@
         <v>انہوں نے سوچا کہ اسے آن لائن زیادہ وقت گزارنا چاہیے۔</v>
       </c>
       <c r="D832" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="833">
@@ -12075,7 +12075,7 @@
         <v>ایک کار حادثے کے سنگین نتائج جو جو کے کانگریس میں منتخب نہ ہونے کا سبب بن سکتے تھے۔</v>
       </c>
       <c r="D833" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="834">
@@ -12089,7 +12089,7 @@
         <v>شخص اپنے فیصلوں کے بارے میں نہیں سوچ رہا ہے۔</v>
       </c>
       <c r="D834" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="835">
@@ -12593,7 +12593,7 @@
         <v>اس نے صرف صدر کے بارے میں نجی طور پر بات کی۔</v>
       </c>
       <c r="D870" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="871">
@@ -12607,7 +12607,7 @@
         <v>آپ حقیقی فرینکلن ہیں، چاہے میں کیسا بھی لباس پہنے ہوں۔</v>
       </c>
       <c r="D871" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="872">
@@ -12621,7 +12621,7 @@
         <v>درخت شاندار لگ رہے تھے۔</v>
       </c>
       <c r="D872" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="873">
@@ -12635,7 +12635,7 @@
         <v>ریپبلکنز پہلے جنگریچ کو اپنے پاس رکھنے میں دلچسپی رکھتے تھے۔</v>
       </c>
       <c r="D873" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="874">
@@ -12649,7 +12649,7 @@
         <v>کسی کو ضرور معلوم ہونا چاہیے کہ یہ کہاں ہے۔</v>
       </c>
       <c r="D874" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="875">
@@ -12663,7 +12663,7 @@
         <v>مجھے لگتا ہے کہ انہوں نے میرے شوہر کو ایک خط بھیجا ہے تاکہ یہ معلوم کر سکیں کہ آیا آپ کا شوہر TI کے لیے کام کرتا ہے۔</v>
       </c>
       <c r="D875" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="876">
@@ -12677,7 +12677,7 @@
         <v>یہ کتنی سرونگ بناتی ہے؟</v>
       </c>
       <c r="D876" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="877">
@@ -12691,7 +12691,7 @@
         <v>ان کو فیشن کے ذوق کا کوئی علم نہیں ہے۔</v>
       </c>
       <c r="D877" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="878">
@@ -12705,7 +12705,7 @@
         <v>ڈرو نے ڈون کیخوٹے کو جانا۔</v>
       </c>
       <c r="D878" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="879">
@@ -12719,7 +12719,7 @@
         <v>ناسا کے حامیوں کا ہمیشہ یہ کہنا رہا ہے کہ یہ ایک مالی مسئلہ تھا۔</v>
       </c>
       <c r="D879" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="880">
@@ -12733,7 +12733,7 @@
         <v>ڈرو نے گھوڑے کے لیے ایک پیشکش قبول کر لی۔</v>
       </c>
       <c r="D880" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="881">
@@ -12747,7 +12747,7 @@
         <v>آپ کو چاہیے۔</v>
       </c>
       <c r="D881" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="882">
@@ -12761,7 +12761,7 @@
         <v>وہ واقعی ہو سکتے ہیں۔</v>
       </c>
       <c r="D882" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="883">
@@ -12775,7 +12775,7 @@
         <v>یہ اضافی رکھنا فائدہ مند ہے کیونکہ یہ ممکن ہے کہ اس پر ووٹ نہ دیا جائے۔</v>
       </c>
       <c r="D883" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="884">
@@ -12789,7 +12789,7 @@
         <v>یہ اندازہ لگایا گیا ہے کہ مقدمے کی لاگت شیک کو 100,000 سے 300,000 ڈالر تک ہوگی، جو وہ آسانی سے برداشت کر سکتی ہیں۔</v>
       </c>
       <c r="D884" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="885">
@@ -12803,7 +12803,7 @@
         <v>سانڈورو نے جون کو اٹھایا تاکہ وہ کھڑا ہو سکے۔</v>
       </c>
       <c r="D885" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="886">
@@ -12817,7 +12817,7 @@
         <v>کوئی سوچتا ہے کہ کیا سرکس کے جوکر ہونے کی تاریخ نے اس کی فوٹوگرافی پر اثر ڈالا۔</v>
       </c>
       <c r="D886" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="887">
@@ -12831,7 +12831,7 @@
         <v>یہ فیصلہ طے کرے گا کہ آیا یہ تخمینے تبدیل ہو سکتے ہیں یا نہیں۔</v>
       </c>
       <c r="D887" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="888">
@@ -12845,7 +12845,7 @@
         <v>حکومتی اشرافیہ قومی معیشت کو کنٹرول کرتی ہے۔</v>
       </c>
       <c r="D888" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="889">
@@ -12859,7 +12859,7 @@
         <v>یہ بہت مشکوک تھا کہ اس نے اسی دن نئی وصیت بنائی جب وہ فوت ہوئی۔</v>
       </c>
       <c r="D889" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="890">
@@ -12873,7 +12873,7 @@
         <v>ٹھیکیدار کو شامل کیا جانا چاہیے۔</v>
       </c>
       <c r="D890" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="891">
@@ -12887,7 +12887,7 @@
         <v>ایک شخص کو دو پیشکشوں کے درمیان کوئی ترجیح نہیں ہو سکتی۔</v>
       </c>
       <c r="D891" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="892">
@@ -12901,7 +12901,7 @@
         <v>نئے اخراج کے اصول کا اعلان مئی 1996 میں کیا گیا تھا۔</v>
       </c>
       <c r="D892" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="893">
@@ -12915,7 +12915,7 @@
         <v>یہ جمہوریت کے طور پر ختم نہیں ہو سکتا۔</v>
       </c>
       <c r="D893" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="894">
@@ -12929,7 +12929,7 @@
         <v>قدر بڑی ہے اور اس میں کسی قسم کی غلطی ہونی چاہیے۔</v>
       </c>
       <c r="D894" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="895">
@@ -12943,7 +12943,7 @@
         <v>آپ جنگ میں مر گئے ہوں گے۔</v>
       </c>
       <c r="D895" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="896">
@@ -12957,7 +12957,7 @@
         <v>مصنف خوش ہے کہ یہ خیال حقیقت میں نہیں بدلا۔</v>
       </c>
       <c r="D896" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="897">
@@ -12971,7 +12971,7 @@
         <v>جدید انٹیک سسٹمز کو زیادہ کلائنٹس کی مدد کے لیے نصب کیا جانا چاہیے۔</v>
       </c>
       <c r="D897" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="898">
@@ -12985,7 +12985,7 @@
         <v>وفاقی مالیاتی پالیسی قومی بچت پر کئی طریقوں سے اثر انداز ہو سکتی ہے۔</v>
       </c>
       <c r="D898" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="899">
@@ -12999,7 +12999,7 @@
         <v>کیلے کی کریم پائی سب سے بہترین تھی اور اسے گھر لے جایا جا سکتا ہے۔</v>
       </c>
       <c r="D899" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="900">
@@ -13013,7 +13013,7 @@
         <v>البرٹ کو اوپر کی منزل پر چلتے ہوئے سنا جا سکتا تھا۔</v>
       </c>
       <c r="D900" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="901">
@@ -13027,7 +13027,7 @@
         <v>موم بتی کی روشنی نے آدمی کو اور بھی مضبوط دکھایا۔</v>
       </c>
       <c r="D901" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="902">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -12103,7 +12103,7 @@
         <v>مصنف نے "وینس کا تاجر" دیکھا ہے۔</v>
       </c>
       <c r="D835" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="836">
@@ -12117,7 +12117,7 @@
         <v>یہ پروڈکٹ جون، جولائی، اور اگست کے موسم گرما کے مہینوں میں دکانوں پر دستیاب ہونی چاہیے۔</v>
       </c>
       <c r="D836" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="837">
@@ -12131,7 +12131,7 @@
         <v>سماج ایک دن ٹوٹ سکتا ہے۔</v>
       </c>
       <c r="D837" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="838">
@@ -12145,7 +12145,7 @@
         <v>یہ ممکن ہے کہ مصنف کو موت سے بہت پہلے ایک مہلک بیماری ہو جائے۔</v>
       </c>
       <c r="D838" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="839">
@@ -12159,7 +12159,7 @@
         <v>ہمارے پاس کاپی رائٹ شدہ مواد تک رسائی ہے۔</v>
       </c>
       <c r="D839" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="840">
@@ -12173,7 +12173,7 @@
         <v>وہ سب غلام ہو سکتے تھے۔</v>
       </c>
       <c r="D840" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="841">
@@ -12187,7 +12187,7 @@
         <v>ریاستہائے متحدہ امریکہ اور روس ایک ساتھ جنگ میں ہیں۔</v>
       </c>
       <c r="D841" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="842">
@@ -12201,7 +12201,7 @@
         <v>نیٹو میں شامل ہونے سے بہت کم اضافی تحفظ ملتا ہے۔</v>
       </c>
       <c r="D842" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="843">
@@ -12215,7 +12215,7 @@
         <v>ایکوئٹی آپشنز عام طور پر صارف کے لیے جائز نہیں ہوتے۔</v>
       </c>
       <c r="D843" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="844">
@@ -12229,7 +12229,7 @@
         <v>یہ پروگرام پولیس کو شامل کرنے کے لیے توسیع کرے گا۔</v>
       </c>
       <c r="D844" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="845">
@@ -12243,7 +12243,7 @@
         <v>وہ لوگوں کا بہت سختی سے فیصلہ نہیں کرتا جن کے مذہبی خیالات اس سے مختلف ہیں۔</v>
       </c>
       <c r="D845" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="846">
@@ -12257,7 +12257,7 @@
         <v>ان کے پاس اس مشکل سے نکلنے کے لئے انتخاب ہیں۔</v>
       </c>
       <c r="D846" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="847">
@@ -12271,7 +12271,7 @@
         <v>وہ پہلے ہی بدل چکی ہے۔</v>
       </c>
       <c r="D847" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="848">
@@ -12285,7 +12285,7 @@
         <v>بڑے قرضے فرق ڈالیں گے۔</v>
       </c>
       <c r="D848" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="849">
@@ -12299,7 +12299,7 @@
         <v>ایپل نے کچھ کمپنیوں جیسے کہ آئی بی ایم اور ایچ پی کو اپنے آپریٹنگ سسٹم پر چلنے والے ہارڈ ویئر تیار کرنے کی اجازت دی۔</v>
       </c>
       <c r="D849" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="850">
@@ -12313,7 +12313,7 @@
         <v>یہ ممکن ہو سکتا ہے کہ لوگوں سے بغیر خاندانی مسائل کے جانے کو کہا جائے۔</v>
       </c>
       <c r="D850" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="851">
@@ -12327,7 +12327,7 @@
         <v>ذہانت کی کئی وضاحتیں اور امکانات ہیں، جن میں عجیب بھی شامل ہے۔</v>
       </c>
       <c r="D851" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="852">
@@ -12341,7 +12341,7 @@
         <v>عراقی کمانڈو یونٹس کے لیے خبروں کے ذرائع سے کسی بھی رپورٹ سے بچنا مشکل ہو سکتا ہے۔</v>
       </c>
       <c r="D852" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="853">
@@ -12355,7 +12355,7 @@
         <v>ایک جوتے کی کمپنی کے اعلیٰ عہدے داروں کی جانچ نہیں کی جا رہی ہے۔</v>
       </c>
       <c r="D853" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="854">
@@ -12369,7 +12369,7 @@
         <v>ٹرپ نے حقیقت میں ایک ڈریگن پر سواری کی لیکن میڈیا نے اس پر توجہ نہیں دی اور اس کی عدالت میں گواہی پر توجہ مرکوز کی۔</v>
       </c>
       <c r="D854" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="855">
@@ -12383,7 +12383,7 @@
         <v>کسی کو یقین نہیں ہے کہ برگمن نے کب فیصلہ کیا کہ ویگنڈ کی کوئی اہمیت نہیں ہے۔</v>
       </c>
       <c r="D855" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="856">
@@ -12397,7 +12397,7 @@
         <v>کتاب کا اختتام بحث پر ہوتا ہے۔</v>
       </c>
       <c r="D856" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="857">
@@ -12411,7 +12411,7 @@
         <v>یہ ضروری ہے کہ انسانی خدمات کے غیر منافع بخش فراہم کنندگان غیر ملکی طریقوں اور ذہنیتوں کا استعمال کریں تاکہ وہ کام کر سکیں۔</v>
       </c>
       <c r="D857" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="858">
@@ -12425,7 +12425,7 @@
         <v>محفوظ شدہ فریکوئنٹ فلائر میلز کو نقد قیمت کے لیے تبدیل کیا جا سکتا ہے۔</v>
       </c>
       <c r="D858" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="859">
@@ -12439,7 +12439,7 @@
         <v>وہ تقریباً یقینی طور پر تجارت کے لیے بھیجا جائے گا۔</v>
       </c>
       <c r="D859" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="860">
@@ -12453,7 +12453,7 @@
         <v>یو ایس پی ایس کو کچھ مخصوص قسم کی تجویز کردہ سروس کی جدتوں پر غور کرنا چاہیے۔</v>
       </c>
       <c r="D860" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="861">
@@ -12467,7 +12467,7 @@
         <v>مائیکروسافٹ نے مشکوک رویے میں ملوث ہونے کا عمل کیا ہے اور اس کی تحقیقات کی جا رہی ہیں۔</v>
       </c>
       <c r="D861" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="862">
@@ -12481,7 +12481,7 @@
         <v>بل بریڈلی اور ایل گور ہی وہ واحد لوگ ہیں جو نیٹ ووٹنگ دھوکہ دہی سے متاثر ہوئے ہیں، اس کے علاوہ ایری زونا کے ڈیموکریٹس۔</v>
       </c>
       <c r="D862" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="863">
@@ -12495,7 +12495,7 @@
         <v>اسٹاک آپشنز ایک اچھا خیال ہیں۔</v>
       </c>
       <c r="D863" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="864">
@@ -12509,7 +12509,7 @@
         <v>کوئی بھی یہ نہیں جانتا کہ براورا کیا ہے، لیکن ڈاکٹروں کو امید ہے کہ اسے نکالا جا سکتا ہے۔</v>
       </c>
       <c r="D864" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="865">
@@ -12523,7 +12523,7 @@
         <v>A ایک دیہی پب کی طرح لگتا ہے جس میں پتھریلا صحن ہے۔</v>
       </c>
       <c r="D865" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="866">
@@ -12537,7 +12537,7 @@
         <v>قومی سائنسز کی اکیڈمی نے وزیر اعظم کے لیے تحقیق کی ترجیحات پر رپورٹ پیش کی۔</v>
       </c>
       <c r="D866" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="867">
@@ -12551,7 +12551,7 @@
         <v>یہ غیر معمولی نہیں ہے کہ سیاحتی رہنما پرتگالی حکومت کی سرکاری رہائش میں چوری چھپے داخل ہوں۔</v>
       </c>
       <c r="D867" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="868">
@@ -12565,7 +12565,7 @@
         <v>یونان شمالی اور مشرقی اٹلی کے جزائر کو جذب کر سکتا تھا اور اس نے اس موقع کا فائدہ اٹھایا۔</v>
       </c>
       <c r="D868" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="869">
@@ -12579,7 +12579,7 @@
         <v>سال 2000 کی تبدیلی کی کوششوں پر سخت وقت کی پابندیاں حساس معلومات کی رازداری پر بالکل بھی اثر انداز نہیں ہونی چاہئیں۔</v>
       </c>
       <c r="D869" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="870">

--- a/Annotations/annotations_UR.xlsx
+++ b/Annotations/annotations_UR.xlsx
@@ -13041,7 +13041,7 @@
         <v>یہ معاہدہ NAFTA کے قواعد کے تحت ہے۔</v>
       </c>
       <c r="D902" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="903">
@@ -13055,7 +13055,7 @@
         <v>ای میل مارکیٹنگ مہم چلانے کا بہترین طریقہ یہ ہے کہ بس اسے آزادانہ طور پر کریں۔ گاہکوں کی ایک فہرست بنائیں۔ لوگوں کو تنگ کرنا پیروکار حاصل کرنے کا ایک بہترین طریقہ ہے۔ ای میل مارکیٹنگ کا آغاز انیس سو اسی کی دہائی میں ہوا۔</v>
       </c>
       <c r="D903" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="904">
@@ -13069,7 +13069,7 @@
         <v>نیویارک سے کوئی رکن نہیں ہیں۔</v>
       </c>
       <c r="D904" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="905">
@@ -13083,7 +13083,7 @@
         <v>پپی ایک سال بڑا ہونے کے لیے تھا۔</v>
       </c>
       <c r="D905" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="906">
@@ -13097,7 +13097,7 @@
         <v>یوٹیوب صارف Streetcap1 نے چینی چاند کی گاڑی چینگ'e 4 سے لی گئی تصاویر کی ایک سیریز پوسٹ کی۔</v>
       </c>
       <c r="D906" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="907">
@@ -13111,7 +13111,7 @@
         <v>پریشان ہونے کی حالت کو بصری حسوں کے ذریعے محسوس کیا جا سکتا ہے۔</v>
       </c>
       <c r="D907" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="908">
@@ -13125,7 +13125,7 @@
         <v>رائے سینٹ انتونی اسکول 9 سالہ لڑکوں کو داخلہ نہیں دیتا۔</v>
       </c>
       <c r="D908" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="909">
@@ -13139,7 +13139,7 @@
         <v>گورنر نے قوم کی تعمیر کے لیے دوگنا تجویز پیش کی ہے۔</v>
       </c>
       <c r="D909" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="910">
@@ -13153,7 +13153,7 @@
         <v>کم از کم دس سے کم لوگ ہلاک ہوئے ہیں۔</v>
       </c>
       <c r="D910" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="911">
@@ -13167,7 +13167,7 @@
         <v>خزاں کے رنگ بارش پر منحصر نہیں ہوتے۔</v>
       </c>
       <c r="D911" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="912">
@@ -13181,7 +13181,7 @@
         <v>جوسف کلا فلپائن کے صدر نہیں ہیں۔</v>
       </c>
       <c r="D912" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="913">
@@ -13195,7 +13195,7 @@
         <v>شیئرڈ زونز شہری ڈیزائن کو مدنظر رکھتے ہیں۔</v>
       </c>
       <c r="D913" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="914">
@@ -13209,7 +13209,7 @@
         <v>میڈیسن سے ڈرائیو کرنے میں 5 گھنٹے سے کم وقت لگتا ہے۔</v>
       </c>
       <c r="D914" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="915">
@@ -13223,7 +13223,7 @@
         <v>ہیلو بلیڈ نے ٹائمز اینڈ سے زیادہ درجہ بندی حاصل کی۔</v>
       </c>
       <c r="D915" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="916">
@@ -13237,7 +13237,7 @@
         <v>ڈاکٹر صرف چہل قدمی پر جا رہے تھے جب یہ سب کچھ ہوا۔</v>
       </c>
       <c r="D916" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="917">
@@ -13251,7 +13251,7 @@
         <v>چک رائٹ کو کوائٹ رائٹ کے لیے کئی پس منظر گلوکاروں میں سے ایک سمجھا جاتا تھا۔</v>
       </c>
       <c r="D917" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="918">
@@ -13265,7 +13265,7 @@
         <v>مرکزی ہال باسکٹ بال کے کھیلوں کے لیے 10,014 لوگوں سے زیادہ نہیں رکھ سکتا۔</v>
       </c>
       <c r="D918" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="919">
@@ -13279,7 +13279,7 @@
         <v>کچھ آئینی وکلاء کا معائنہ کیا جائے گا۔</v>
       </c>
       <c r="D919" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="920">
@@ -13293,7 +13293,7 @@
         <v>کمزور کارڈ بورڈ مضبوط سے بہتر ہے۔</v>
       </c>
       <c r="D920" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="921">
@@ -13307,7 +13307,7 @@
         <v>کچھ طبی قیمتیں بڑی ہیں۔</v>
       </c>
       <c r="D921" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="922">
@@ -13321,7 +13321,7 @@
         <v>ایرک نے سوچا کہ نیل ورک کپڑوں میں زیادہ اچھا لگتا ہے بجائے ڈریس کپڑوں کے۔</v>
       </c>
       <c r="D922" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="923">
@@ -13335,7 +13335,7 @@
         <v>امریکہ میں صدر کے تحت ملازمتیں ختم ہو رہی ہیں۔</v>
       </c>
       <c r="D923" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="924">
@@ -13349,7 +13349,7 @@
         <v>معاشی ترقی آزادوں کی سرزمین اور بہادروں کے گھر کے سپہ سالار کے لیے سب سے اہم توجہ ہے۔</v>
       </c>
       <c r="D924" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="925">
@@ -13363,7 +13363,7 @@
         <v>"جہاں ایک حلف نامہ فراہم کیا جاتا ہے" بہت مخصوص زبان ہے۔</v>
       </c>
       <c r="D925" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="926">
@@ -13377,7 +13377,7 @@
         <v>مسٹر ویزل ایک خیالی کردار ہے۔</v>
       </c>
       <c r="D926" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="927">
@@ -13391,7 +13391,7 @@
         <v>مردوں پر ایک عمارت کے اندر سے گولی چلائی گئی جس کے پاس وہ گزر رہے تھے۔</v>
       </c>
       <c r="D927" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="928">
@@ -13405,7 +13405,7 @@
         <v>آدمی موقع پر نہیں مرا۔</v>
       </c>
       <c r="D928" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="929">
@@ -13419,7 +13419,7 @@
         <v>ایک سست سانس لینے کا طریقہ یہ ہے کہ دو بار سانس لیں اور چھٹی کے خواب دیکھیں۔</v>
       </c>
       <c r="D929" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="930">
@@ -13433,7 +13433,7 @@
         <v>صدر یورپ کے ساتھ مضبوط تعلقات رکھنے پر یقین رکھتے ہیں۔</v>
       </c>
       <c r="D930" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="931">
@@ -13447,7 +13447,7 @@
         <v>"تمام محبت کے لیے" کم سے کم چار لوگوں نے لکھا تھا۔</v>
       </c>
       <c r="D931" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="932">
@@ -13461,7 +13461,7 @@
         <v>میڈیسن سے ڈرائیو کرنے میں 6 گھنٹے سے کم وقت لگتا ہے۔</v>
       </c>
       <c r="D932" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="933">
@@ -13475,7 +13475,7 @@
         <v>پل کی گرامر جزیرے کی گرامر سے چھوٹی نہیں ہے۔</v>
       </c>
       <c r="D933" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="934">
@@ -13489,7 +13489,7 @@
         <v>یہ شو اب "جیک ہورکھیمر: اسٹار ہسٹر" نہیں کہا جاتا۔</v>
       </c>
       <c r="D934" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="935">
@@ -13503,7 +13503,7 @@
         <v>ببل گم بلبلے بنانے کے لیے بہتر ہے۔</v>
       </c>
       <c r="D935" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="936">
@@ -13517,7 +13517,7 @@
         <v>یہ مقرر کئی شاہی منظوریوں میں شرکت کر چکا ہے۔</v>
       </c>
       <c r="D936" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="937">
@@ -13531,7 +13531,7 @@
         <v>کینیڈین حکومت ایک سال سے خفیہ مذاکرات میں مصروف ہے۔</v>
       </c>
       <c r="D937" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="938">
@@ -13545,7 +13545,7 @@
         <v>گور کو گورنر کے طور پر مخاطب کیا جاتا ہے۔</v>
       </c>
       <c r="D938" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="939">
@@ -13559,7 +13559,7 @@
         <v>اسٹریٹ کیپ1 چاند پر تھا جب اس نے چینی چاند کی گاڑی چینج'e 3 سے تصاویر پوسٹ کیں۔</v>
       </c>
       <c r="D939" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="940">
@@ -13573,7 +13573,7 @@
         <v>چینج 3 نے یوٹیوب پر کلپس پوسٹ نہیں کیے۔</v>
       </c>
       <c r="D940" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="941">
@@ -13587,7 +13587,7 @@
         <v>رجحانات واپس آ رہے ہیں۔</v>
       </c>
       <c r="D941" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="942">
@@ -13601,7 +13601,7 @@
         <v>ان کے ذہن میں کسانوں کے لئے فٹ پاتھ تھے۔</v>
       </c>
       <c r="D942" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="943">
@@ -13615,7 +13615,7 @@
         <v>جبکہ زڈینو چارا NHL کا سب سے لمبا کھلاڑی ہے، مائیک سیوک لمبے کھلاڑیوں میں سے نہیں ہے۔</v>
       </c>
       <c r="D943" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="944">
@@ -13629,7 +13629,7 @@
         <v>ہولڈنگ بیک دی ریور نے بینڈ کے ابتدائی البم سے زیادہ چارٹس میں اوپر پہنچا۔</v>
       </c>
       <c r="D944" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="945">
@@ -13643,7 +13643,7 @@
         <v>گورڈن نے اس موسم میں ایک اور کھیل میں ایک سے زیادہ بار ہٹ کیا۔</v>
       </c>
       <c r="D945" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="946">
@@ -13657,7 +13657,7 @@
         <v>بیٹ ٹی وی دو گھنٹے سے زیادہ وقت تک نشر کیا گیا۔</v>
       </c>
       <c r="D946" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="947">
@@ -13671,7 +13671,7 @@
         <v>بگ 12 کانفرنس میں 10 سے زیادہ اسکول ہیں۔</v>
       </c>
       <c r="D947" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="948">
@@ -13685,7 +13685,7 @@
         <v>گلاسگو کا کیلوین گروو میوزیم بھارت میں تھا۔</v>
       </c>
       <c r="D948" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="949">
@@ -13699,7 +13699,7 @@
         <v>اینٹ آرٹانی نے اپنی تمام گانے خود نہیں لکھے۔</v>
       </c>
       <c r="D949" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="950">
@@ -13713,7 +13713,7 @@
         <v>ایمی اور آنا دوبارہ ملیں جب وہ کافے میں اتفاقی طور پر ملیں۔</v>
       </c>
       <c r="D950" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="951">
@@ -13727,7 +13727,7 @@
         <v>باب ایڈمز فیلڈ یامپا وادی ریجنل ایئرپورٹ سے پچیس میل مشرق میں واقع ہے۔</v>
       </c>
       <c r="D951" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="952">
@@ -13741,7 +13741,7 @@
         <v>ہر کسی کو میڈیکیئر کا حق نہیں ہے۔</v>
       </c>
       <c r="D952" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="953" xml:space="preserve">
@@ -13758,7 +13758,7 @@
         <v>نیل گورڈن ایک شاندار لباس پہننے والا شخص نہیں ہے۔</v>
       </c>
       <c r="D953" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="954">
@@ -13772,7 +13772,7 @@
         <v>بیان میں تقریباً 28 الفاظ سے کم ہیں۔</v>
       </c>
       <c r="D954" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="955">
@@ -13786,7 +13786,7 @@
         <v>ہر ایک نے اگلے شخص کے ساتھ 5 منٹ کے اندر بات کی۔</v>
       </c>
       <c r="D955" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="956">
@@ -13800,7 +13800,7 @@
         <v>نینسی ہارٹ ڈگلس جنرل اسٹون وال جیکسن کے تحت ایک اسکاوٹ نہیں تھیں۔</v>
       </c>
       <c r="D956" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="957">
@@ -13814,7 +13814,7 @@
         <v>تھائی لینڈ اور کمبوڈیا ایک مندر کی ملکیت پر اتفاق رائے نہیں کر پا رہے ہیں۔</v>
       </c>
       <c r="D957" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="958">
@@ -13828,7 +13828,7 @@
         <v>پامیلا کے قتل کے تین ہفتے سے زیادہ وقت بعد، لوئس ریس پولیس کی حراست میں تھی۔</v>
       </c>
       <c r="D958" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="959">
@@ -13842,7 +13842,7 @@
         <v>سوڈیم سکرین میں ایک o</v>
       </c>
       <c r="D959" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="960">
@@ -13856,7 +13856,7 @@
         <v>جینسن ایکلز کو ٹیلی ویژن میں اس کے کرداروں کے لیے جانا نہیں جاتا جیسے کہ اسمال ویل میں جیسن ٹیگ۔</v>
       </c>
       <c r="D960" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="961">
@@ -13870,7 +13870,7 @@
         <v>چوکنڈی کی قیمت کم تھی، جو ایک بلی نے ہدایت کی تھی۔</v>
       </c>
       <c r="D961" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="962">
@@ -13884,7 +13884,7 @@
         <v>کوئن برادرز نے ایک تھرلر فلم کی ہدایت کاری کی۔</v>
       </c>
       <c r="D962" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="963">
@@ -13898,7 +13898,7 @@
         <v>محمد ایک نبی تھے۔</v>
       </c>
       <c r="D963" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="964">
@@ -13912,7 +13912,7 @@
         <v>وینس ولیمز ٹینس میں سنگلز کھیلتی ہیں۔</v>
       </c>
       <c r="D964" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="965">
@@ -13926,7 +13926,7 @@
         <v>برٹنی مرفی نے ایک فلم میں اداکاری کی۔</v>
       </c>
       <c r="D965" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="966">
@@ -13940,7 +13940,7 @@
         <v>برمودا کو 1609 میں نوآبادی بنایا گیا تھا۔</v>
       </c>
       <c r="D966" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="967">
@@ -13954,7 +13954,7 @@
         <v>ہیری اسٹائلز اور ان کے بینڈ کے ساتھیوں نے فک البم "مڈنائٹ میموریز" جاری کیا۔</v>
       </c>
       <c r="D967" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="968">
@@ -13968,7 +13968,7 @@
         <v>فینٹاسٹک بیسٹز اور انہیں کہاں تلاش کریں ایک قدرتی کتاب ہے۔</v>
       </c>
       <c r="D968" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="969">
@@ -13982,7 +13982,7 @@
         <v>میرکا فیڈرر ایک ٹینس کھلاڑی ہیں جو پیشہ ورانہ طور پر کھیلتی تھیں اور اب نہیں کھیلتی ہیں۔</v>
       </c>
       <c r="D969" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="970">
@@ -13996,7 +13996,7 @@
         <v>بگ شو کا پیدائشی نام پال ڈونلڈ وائیٹ II ہے، حالانکہ وہ پیشہ ور کشتی کے لیے بگ شو کا نام استعمال کرتا ہے۔</v>
       </c>
       <c r="D970" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="971">
@@ -14010,7 +14010,7 @@
         <v>لیزلی اگمز نے ٹم ملر کی ہدایتکاری میں ایک فلم میں کام کیا۔</v>
       </c>
       <c r="D971" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="972">
@@ -14024,7 +14024,7 @@
         <v>وینس ولیمز ٹینس میں سنگلز کھیلتی ہیں۔</v>
       </c>
       <c r="D972" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="973">
@@ -14038,7 +14038,7 @@
         <v>ڈرو بیری مور نے ایک فلم میں اداکاری کی۔</v>
       </c>
       <c r="D973" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="974">
@@ -14052,7 +14052,7 @@
         <v>ٹوی اسٹوری پہلے شائع شدہ مواد پر مبنی نہیں تھی جس کی وجہ سے اسے بہترین اصل اسکرین پلے کے لیے نامزد کیا جا سکا۔</v>
       </c>
       <c r="D974" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="975">
@@ -14066,7 +14066,7 @@
         <v>ملالہ یوسف زئی خواتین کے تعلیمی حقوق کی وکیل ہیں۔</v>
       </c>
       <c r="D975" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="976">
@@ -14080,7 +14080,7 @@
         <v>پی ایک عدد ہے۔</v>
       </c>
       <c r="D976" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="977">
@@ -14094,7 +14094,7 @@
         <v>آذربائیجان میں لوگوں کا ایک اعلیٰ فیصد خواندہ ہے۔</v>
       </c>
       <c r="D977" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="978">
@@ -14108,7 +14108,7 @@
         <v>اٹلی کا ایک طویل سرکاری عنوان ہے۔</v>
       </c>
       <c r="D978" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="979">
@@ -14122,7 +14122,7 @@
         <v>میٹ گروننگ نے دی سمپسنز کے لیے پرائم ٹائم ایمنیز جیتے۔</v>
       </c>
       <c r="D979" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="980">
@@ -14136,7 +14136,7 @@
         <v>محمد مذہب کے لیے اہم ہیں۔</v>
       </c>
       <c r="D980" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="981">
@@ -14150,7 +14150,7 @@
         <v>جان میکینرو ایک ٹینس کھلاڑی تھے۔</v>
       </c>
       <c r="D981" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="982">
@@ -14164,7 +14164,7 @@
         <v>بلیک مرر ایک ریس ہارس ہے۔</v>
       </c>
       <c r="D982" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="983">
@@ -14178,7 +14178,7 @@
         <v>کیچنگ فائر ایک صنف ہے۔</v>
       </c>
       <c r="D983" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="984">
@@ -14192,7 +14192,7 @@
         <v>جان میک کین پر 1989 میں کیٹنگ فائیو کے حصے کے طور پر بدعنوانی کا الزام لگایا گیا تھا۔</v>
       </c>
       <c r="D984" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="985">
@@ -14206,7 +14206,7 @@
         <v>ویلیریئن اور ہزار سیاروں کا شہر میں ایک اداکار شامل ہے۔</v>
       </c>
       <c r="D985" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="986">
@@ -14220,7 +14220,7 @@
         <v>وینس ولیمز ٹینس میں سنگلز کھیلتی ہیں۔</v>
       </c>
       <c r="D986" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="987">
@@ -14234,7 +14234,7 @@
         <v>مارگریٹ آف ویلوئس کی بہنیں تھیں۔</v>
       </c>
       <c r="D987" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="988">
@@ -14248,7 +14248,7 @@
         <v>میٹ گروننگ نے دی سمپسنز کے لیے دس اطالوی بیف سینڈوچز جیتے۔</v>
       </c>
       <c r="D988" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="989">
@@ -14262,7 +14262,7 @@
         <v>نیش ول سونگ رائٹرز ایسوسی ایشن انٹرنیشنل موسیقی کی صنعت کی تعلیم فراہم کرتی ہے۔</v>
       </c>
       <c r="D989" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="990">
@@ -14276,7 +14276,7 @@
         <v>بیٹ مین کا آغاز شمالی امریکہ کی آزادی سے پہلے کا ہے۔</v>
       </c>
       <c r="D990" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="991">
@@ -14290,7 +14290,7 @@
         <v>ٹوی کہانی پہلے شائع شدہ مواد پر مبنی نہیں تھی جس کی وجہ سے اسے بہترین اصل اسکرین پلے کے لیے نامزد کیا جا سکا۔</v>
       </c>
       <c r="D991" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="992">
@@ -14304,7 +14304,7 @@
         <v>بلی جوئل پرفارمنگ آرٹس کی صنعت میں ہیں۔</v>
       </c>
       <c r="D992" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="993">
@@ -14318,7 +14318,7 @@
         <v>کیچنگ فائر پیپر بیک میں جاری کیا گیا۔</v>
       </c>
       <c r="D993" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="994">
@@ -14332,7 +14332,7 @@
         <v>بریٹنی مرفی نے اداکاری کی۔</v>
       </c>
       <c r="D994" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="995">
@@ -14346,7 +14346,7 @@
         <v>فو فائٹرز موسیقی بناتے ہیں۔</v>
       </c>
       <c r="D995" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="996">
@@ -14360,7 +14360,7 @@
         <v>بوئنگ 777 دنیا کا سب سے دور تک جانے والا ہوائی جہاز ہے۔</v>
       </c>
       <c r="D996" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="997">
@@ -14374,7 +14374,7 @@
         <v>محمد مذہب کے لیے اہم ہیں۔</v>
       </c>
       <c r="D997" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="998">
@@ -14388,7 +14388,7 @@
         <v>ٹرانسفارمرز: انتقام کا زوال ایک فلم ہے۔</v>
       </c>
       <c r="D998" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="999">
@@ -14402,7 +14402,7 @@
         <v>بگ شو کا اسٹیج نام پال ڈونلڈ وائٹ II ہے۔</v>
       </c>
       <c r="D999" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="1000">
@@ -14416,7 +14416,7 @@
         <v>محمد مذہب کے لیے اہم ہیں۔</v>
       </c>
       <c r="D1000" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="1001">
@@ -14430,7 +14430,7 @@
         <v>جوآکین فینکس نے فلمیں ڈائریکٹ کی ہیں۔</v>
       </c>
       <c r="D1001" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
   </sheetData>
